--- a/docs/Resolution_Study_Minimization.xlsx
+++ b/docs/Resolution_Study_Minimization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>single</t>
   </si>
@@ -24,6 +24,15 @@
     <t>text</t>
   </si>
   <si>
+    <t xml:space="preserve">Graphics Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: Tile/Text Mode</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
     <t>Mode*</t>
   </si>
   <si>
@@ -36,6 +45,9 @@
     <t>bit-plane</t>
   </si>
   <si>
+    <t>colors</t>
+  </si>
+  <si>
     <t>Columns</t>
   </si>
   <si>
@@ -45,6 +57,51 @@
     <t>buffer</t>
   </si>
   <si>
+    <t>Decoding:</t>
+  </si>
+  <si>
+    <t>1:Bitmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Depth 0-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode 0-3</t>
+  </si>
+  <si>
+    <t>Even/Odd</t>
+  </si>
+  <si>
+    <t>H_OScan</t>
+  </si>
+  <si>
+    <t>V_OScan</t>
+  </si>
+  <si>
+    <t>GPU_OPTIONS:</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>VSync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main App</t>
+  </si>
+  <si>
+    <t>(RESERVED)</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+  </si>
+  <si>
     <t>GFX_MODE:</t>
   </si>
   <si>
@@ -60,53 +117,65 @@
     <t xml:space="preserve">11 = 256 clrs</t>
   </si>
   <si>
+    <t>Ext_Bitmap</t>
+  </si>
+  <si>
     <t>Ext_Color</t>
   </si>
   <si>
+    <t>Std_Bitmap</t>
+  </si>
+  <si>
     <t>Std_Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Resolution Modes 0-15</t>
-  </si>
-  <si>
-    <t>GPU_OPTIONS:</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>VSync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main App</t>
-  </si>
-  <si>
-    <t>Extended</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
-    <t>Bitmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Even modes are based on 512x320 @ 70hz, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Odd modes are based on 640x400 @ 70hz.</t>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Even modes are based on 640x400 @ 70hz, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:Tile 1:BMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:2x  01:4x  10:16  11:256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:Text 1:BMP</t>
+  </si>
+  <si>
+    <t>Over-Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Odd modes are based on 512x320 @ 70hz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Display:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Display:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Text Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Tile Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Bitmap Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 Bitmap Modes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -140,7 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,8 +221,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +326,14 @@
         <bgColor theme="6" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="39">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -295,6 +376,21 @@
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="none"/>
       <bottom style="thick">
         <color auto="1"/>
@@ -308,12 +404,8 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
@@ -329,9 +421,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <right style="none"/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -352,6 +442,177 @@
       <diagonal style="none"/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="none"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
       <left style="none"/>
       <right style="none"/>
       <top style="thick">
@@ -363,20 +624,221 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
+      <bottom style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1"/>
@@ -393,8 +855,9 @@
     <xf fontId="0" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="74">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -402,84 +865,237 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="4" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="4" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="4" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="5" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="6" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="7" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="8" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="9" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="7" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="9" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="4" fillId="4" borderId="6" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="7" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="8" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="9" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="10" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="3" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="16" borderId="8" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="11" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="13" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="14" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="6" borderId="15" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="16" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="17" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="18" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="20" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="21" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="8" borderId="3" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="3" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="8" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="22" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="15" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="26" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="3" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="4" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="4" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="4" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="4" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="4" numFmtId="0" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="13" borderId="4" numFmtId="0" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="10" borderId="21" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="11" borderId="3" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="27" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="5" fillId="13" borderId="3" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="28" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="29" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="15" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="30" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="31" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="21" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="32" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="33" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="34" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="35" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="36" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="37" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="38" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="11" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="14" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="23" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="26" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -496,6 +1112,7 @@
     <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
     <cellStyle name="Accent3" xfId="14"/>
     <cellStyle name="60% - Accent3" xfId="15" builtinId="40"/>
+    <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1050,760 +1667,1781 @@
       <c r="O2" s="2"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" ht="16.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" ht="14.25">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
+      <c r="T3" s="4">
+        <v>640</v>
+      </c>
+      <c r="U3" s="4">
+        <v>400</v>
+      </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="T4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="U4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="J5" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>128</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="20">
+        <f>IF(MOD($A6,2)=0,320,256)/INT(MOD($A6/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C6" s="21">
+        <f>IF(MOD($A6,2)=0,200,160)/INT(MOD($A6/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D6" s="21">
+        <f>B6*C6/8</f>
+        <v>8000</v>
+      </c>
+      <c r="E6" s="22">
+        <f>D6</f>
+        <v>8000</v>
+      </c>
+      <c r="F6" s="21">
+        <f>B6/8</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="21">
+        <f>IF(C6/8=12.5,12,C6/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="23">
+        <f>F6*G6*2</f>
+        <v>2000</v>
+      </c>
+      <c r="J6" s="24">
+        <v>7</v>
+      </c>
+      <c r="K6" s="25">
+        <v>6</v>
+      </c>
+      <c r="L6" s="26">
+        <v>5</v>
+      </c>
+      <c r="M6" s="24">
+        <v>4</v>
+      </c>
+      <c r="N6" s="25">
+        <v>3</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <f>$T$3/((T6*2)+2)</f>
+        <v>320</v>
+      </c>
+      <c r="W6" s="28">
+        <f>$U$3/((U6*2)+2)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29">
+        <f>IF(MOD($A7,2)=0,320,256)/INT(MOD($A7/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C7" s="30">
+        <f>IF(MOD($A7,2)=0,200,160)/INT(MOD($A7/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D7" s="30">
+        <f>B7*C7/8</f>
+        <v>5120</v>
+      </c>
+      <c r="E7" s="31">
+        <f>D7</f>
+        <v>5120</v>
+      </c>
+      <c r="F7" s="30">
+        <f>B7/8</f>
+        <v>32</v>
+      </c>
+      <c r="G7" s="30">
+        <f>IF(C7/8=12.5,12,C7/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="32">
+        <f>F7*G7*2</f>
+        <v>1280</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="33">
+        <f>$J$1*$J7+$K$1*$K7+$L$1*$L7+$M$1*$M7+$N$1*$N7+$O$1*$O7+$P$1*$P7+$Q$1*$Q7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="28">
+        <f>$T$3/((T7*2)+2)</f>
+        <v>320</v>
+      </c>
+      <c r="W7" s="28">
+        <f>$U$3/((U7*2)+2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="19">
+        <v>2</v>
+      </c>
+      <c r="B8" s="29">
+        <f>IF(MOD($A8,2)=0,320,256)/INT(MOD($A8/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C8" s="30">
+        <f>IF(MOD($A8,2)=0,200,160)/INT(MOD($A8/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D8" s="30">
+        <f>B8*C8/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>D8</f>
+        <v>4000</v>
+      </c>
+      <c r="F8" s="30">
+        <f>B8/8</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="30">
+        <f>IF(C8/8=12.5,12,C8/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="32">
+        <f>F8*G8*2</f>
+        <v>960</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28">
+        <f>$T$3/((T8*2)+2)</f>
+        <v>160</v>
+      </c>
+      <c r="W8" s="28">
+        <f>$U$3/((U8*2)+2)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="19">
+        <v>3</v>
+      </c>
+      <c r="B9" s="29">
+        <f>IF(MOD($A9,2)=0,320,256)/INT(MOD($A9/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C9" s="30">
+        <f>IF(MOD($A9,2)=0,200,160)/INT(MOD($A9/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="E5" s="10">
-        <f>C5*D5/8</f>
-        <v>1280</v>
-      </c>
-      <c r="F5" s="10">
-        <f>C5/8</f>
-        <v>16</v>
-      </c>
-      <c r="G5" s="10">
-        <f>D5/8</f>
+      <c r="D9" s="30">
+        <f>B9*C9/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E9" s="31">
+        <f>D9</f>
+        <v>2560</v>
+      </c>
+      <c r="F9" s="30">
+        <f>B9/8</f>
+        <v>32</v>
+      </c>
+      <c r="G9" s="30">
+        <f>IF(C9/8=12.5,12,C9/8)</f>
         <v>10</v>
       </c>
-      <c r="H5" s="10">
-        <f>F5*G5*2</f>
-        <v>320</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>160</v>
-      </c>
-      <c r="D6" s="10">
-        <v>80</v>
-      </c>
-      <c r="E6" s="10">
-        <f>C6*D6/8</f>
-        <v>1600</v>
-      </c>
-      <c r="F6" s="10">
-        <f>C6/8</f>
-        <v>20</v>
-      </c>
-      <c r="G6" s="10">
-        <f>D6/8</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="10">
-        <f>F6*G6*2</f>
-        <v>400</v>
-      </c>
-      <c r="J6" s="16">
-        <v>7</v>
-      </c>
-      <c r="K6" s="17">
-        <v>6</v>
-      </c>
-      <c r="L6" s="18">
-        <v>5</v>
-      </c>
-      <c r="M6" s="17">
-        <v>4</v>
-      </c>
-      <c r="N6" s="17">
-        <v>3</v>
-      </c>
-      <c r="O6" s="19">
-        <v>2</v>
-      </c>
-      <c r="P6" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>128</v>
-      </c>
-      <c r="D7" s="10">
-        <v>96</v>
-      </c>
-      <c r="E7" s="10">
-        <f>C7*D7/8</f>
-        <v>1536</v>
-      </c>
-      <c r="F7" s="10">
-        <f>C7/8</f>
-        <v>16</v>
-      </c>
-      <c r="G7" s="10">
-        <f>D7/8</f>
-        <v>12</v>
-      </c>
-      <c r="H7" s="10">
-        <f>F7*G7*2</f>
-        <v>384</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <f>$J$1*$J7+$K$1*$K7+$L$1*$L7+$M$1*$M7+$N$1*$N7+$O$1*$O7+$P$1*$P7+$Q$1*$Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>160</v>
-      </c>
-      <c r="D8" s="10">
-        <v>96</v>
-      </c>
-      <c r="E8" s="10">
-        <f>C8*D8/8</f>
-        <v>1920</v>
-      </c>
-      <c r="F8" s="10">
-        <f>C8/8</f>
-        <v>20</v>
-      </c>
-      <c r="G8" s="10">
-        <f>D8/8</f>
-        <v>12</v>
-      </c>
-      <c r="H8" s="10">
-        <f>F8*G8*2</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9">
-        <v>128</v>
-      </c>
-      <c r="D9" s="10">
-        <v>160</v>
-      </c>
-      <c r="E9" s="10">
-        <f>C9*D9/8</f>
-        <v>2560</v>
-      </c>
-      <c r="F9" s="10">
-        <f>C9/8</f>
-        <v>16</v>
-      </c>
-      <c r="G9" s="10">
-        <f>D9/8</f>
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="H9" s="32">
         <f>F9*G9*2</f>
         <v>640</v>
       </c>
       <c r="I9" s="1"/>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="28">
+        <f>$T$3/((T9*2)+2)</f>
+        <v>160</v>
+      </c>
+      <c r="W9" s="28">
+        <f>$U$3/((U9*2)+2)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="9">
+      <c r="A10" s="19">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29">
+        <f>IF(MOD($A10,2)=0,320,256)/INT(MOD($A10/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C10" s="30">
+        <f>IF(MOD($A10,2)=0,200,160)/INT(MOD($A10/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D10" s="30">
+        <f>B10*C10/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E10" s="31">
+        <f>D10</f>
+        <v>4000</v>
+      </c>
+      <c r="F10" s="30">
+        <f>B10/8</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="30">
+        <f>IF(C10/8=12.5,12,C10/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H10" s="32">
+        <f>F10*G10*2</f>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="B11" s="29">
+        <f>IF(MOD($A11,2)=0,320,256)/INT(MOD($A11/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C11" s="30">
+        <f>IF(MOD($A11,2)=0,200,160)/INT(MOD($A11/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="30">
+        <f>B11*C11/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E11" s="31">
+        <f>D11</f>
+        <v>2560</v>
+      </c>
+      <c r="F11" s="30">
+        <f>B11/8</f>
+        <v>16</v>
+      </c>
+      <c r="G11" s="30">
+        <f>IF(C11/8=12.5,12,C11/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="32">
+        <f>F11*G11*2</f>
+        <v>640</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="T11" s="4">
+        <v>512</v>
+      </c>
+      <c r="U11" s="4">
+        <v>320</v>
+      </c>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="19">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29">
+        <f>IF(MOD($A12,2)=0,320,256)/INT(MOD($A12/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="E10" s="10">
-        <f>C10*D10/8</f>
-        <v>3200</v>
-      </c>
-      <c r="F10" s="10">
-        <f>C10/8</f>
+      <c r="C12" s="30">
+        <f>IF(MOD($A12,2)=0,200,160)/INT(MOD($A12/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="30">
+        <f>B12*C12/8</f>
+        <v>2000</v>
+      </c>
+      <c r="E12" s="31">
+        <f>D12</f>
+        <v>2000</v>
+      </c>
+      <c r="F12" s="30">
+        <f>B12/8</f>
         <v>20</v>
       </c>
-      <c r="G10" s="10">
-        <f>D10/8</f>
+      <c r="G12" s="30">
+        <f>IF(C12/8=12.5,12,C12/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="32">
+        <f>F12*G12*2</f>
+        <v>480</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="T12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="19">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39">
+        <f>IF(MOD($A13,2)=0,320,256)/INT(MOD($A13/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C13" s="40">
+        <f>IF(MOD($A13,2)=0,200,160)/INT(MOD($A13/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D13" s="40">
+        <f>B13*C13/8</f>
+        <v>1280</v>
+      </c>
+      <c r="E13" s="41">
+        <f>D13</f>
+        <v>1280</v>
+      </c>
+      <c r="F13" s="40">
+        <f>B13/8</f>
+        <v>16</v>
+      </c>
+      <c r="G13" s="40">
+        <f>IF(C13/8=12.5,12,C13/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="42">
+        <f>F13*G13*2</f>
+        <v>320</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="T13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <f>$J$1*$J14+$K$1*$K14+$L$1*$L14+$M$1*$M14+$N$1*$N14+$O$1*$O14+$P$1*$P14+$Q$1*$Q14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28">
+        <f>$T$11/((T14*2)+2)</f>
+        <v>256</v>
+      </c>
+      <c r="W14" s="28">
+        <f>$U$11/((U14*2)+2)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="28">
+        <f>$T$11/((T15*2)+2)</f>
+        <v>256</v>
+      </c>
+      <c r="W15" s="28">
+        <f>$U$11/((U15*2)+2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28">
+        <f>$T$11/((T16*2)+2)</f>
+        <v>128</v>
+      </c>
+      <c r="W16" s="28">
+        <f>$U$11/((U16*2)+2)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="48">
+        <v>8</v>
+      </c>
+      <c r="B17" s="20">
+        <f>IF(MOD($A17,2)=0,320,256)/INT(MOD($A17/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C17" s="21">
+        <f>IF(MOD($A17,2)=0,200,160)/INT(MOD($A17/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D17" s="21">
+        <f>B17*C17/8</f>
+        <v>8000</v>
+      </c>
+      <c r="E17" s="22">
+        <f>D17*2</f>
+        <v>16000</v>
+      </c>
+      <c r="F17" s="21">
+        <f>B17/8</f>
+        <v>40</v>
+      </c>
+      <c r="G17" s="21">
+        <f>IF(C17/8=12.5,12,C17/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="23">
+        <f>F17*G17*2</f>
+        <v>2000</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="28">
+        <f>$T$11/((T17*2)+2)</f>
+        <v>128</v>
+      </c>
+      <c r="W17" s="28">
+        <f>$U$11/((U17*2)+2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="48">
+        <v>9</v>
+      </c>
+      <c r="B18" s="29">
+        <f>IF(MOD($A18,2)=0,320,256)/INT(MOD($A18/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C18" s="30">
+        <f>IF(MOD($A18,2)=0,200,160)/INT(MOD($A18/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D18" s="30">
+        <f>B18*C18/8</f>
+        <v>5120</v>
+      </c>
+      <c r="E18" s="31">
+        <f>D18*2</f>
+        <v>10240</v>
+      </c>
+      <c r="F18" s="30">
+        <f>B18/8</f>
+        <v>32</v>
+      </c>
+      <c r="G18" s="30">
+        <f>IF(C18/8=12.5,12,C18/8)</f>
         <v>20</v>
       </c>
-      <c r="H10" s="10">
-        <f>F10*G10*2</f>
-        <v>800</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="9">
+      <c r="H18" s="32">
+        <f>F18*G18*2</f>
+        <v>1280</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="48">
+        <v>10</v>
+      </c>
+      <c r="B19" s="29">
+        <f>IF(MOD($A19,2)=0,320,256)/INT(MOD($A19/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C19" s="30">
+        <f>IF(MOD($A19,2)=0,200,160)/INT(MOD($A19/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D19" s="30">
+        <f>B19*C19/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E19" s="31">
+        <f>D19*2</f>
+        <v>8000</v>
+      </c>
+      <c r="F19" s="30">
+        <f>B19/8</f>
+        <v>40</v>
+      </c>
+      <c r="G19" s="30">
+        <f>IF(C19/8=12.5,12,C19/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H19" s="32">
+        <f>F19*G19*2</f>
+        <v>960</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="52"/>
+      <c r="P19" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="48">
+        <v>11</v>
+      </c>
+      <c r="B20" s="29">
+        <f>IF(MOD($A20,2)=0,320,256)/INT(MOD($A20/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C20" s="30">
+        <f>IF(MOD($A20,2)=0,200,160)/INT(MOD($A20/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D20" s="30">
+        <f>B20*C20/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E20" s="31">
+        <f>D20*2</f>
+        <v>5120</v>
+      </c>
+      <c r="F20" s="30">
+        <f>B20/8</f>
+        <v>32</v>
+      </c>
+      <c r="G20" s="30">
+        <f>IF(C20/8=12.5,12,C20/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H20" s="32">
+        <f>F20*G20*2</f>
+        <v>640</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="48">
+        <v>12</v>
+      </c>
+      <c r="B21" s="29">
+        <f>IF(MOD($A21,2)=0,320,256)/INT(MOD($A21/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C21" s="30">
+        <f>IF(MOD($A21,2)=0,200,160)/INT(MOD($A21/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D21" s="30">
+        <f>B21*C21/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E21" s="31">
+        <f>D21*2</f>
+        <v>8000</v>
+      </c>
+      <c r="F21" s="30">
+        <f>B21/8</f>
+        <v>20</v>
+      </c>
+      <c r="G21" s="30">
+        <f>IF(C21/8=12.5,12,C21/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H21" s="32">
+        <f>F21*G21*2</f>
+        <v>1000</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>0</v>
+      </c>
+      <c r="N21" s="28">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="60">
+        <f>$J$1*$J21+$K$1*$K21+$L$1*$L21+$M$1*$M21+$N$1*$N21+$O$1*$O21+$P$1*$P21+$Q$1*$Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="48">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29">
+        <f>IF(MOD($A22,2)=0,320,256)/INT(MOD($A22/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C22" s="30">
+        <f>IF(MOD($A22,2)=0,200,160)/INT(MOD($A22/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D22" s="30">
+        <f>B22*C22/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E22" s="31">
+        <f>D22*2</f>
+        <v>5120</v>
+      </c>
+      <c r="F22" s="30">
+        <f>B22/8</f>
+        <v>16</v>
+      </c>
+      <c r="G22" s="30">
+        <f>IF(C22/8=12.5,12,C22/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H22" s="32">
+        <f>F22*G22*2</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="48">
+        <v>14</v>
+      </c>
+      <c r="B23" s="29">
+        <f>IF(MOD($A23,2)=0,320,256)/INT(MOD($A23/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C23" s="30">
+        <f>IF(MOD($A23,2)=0,200,160)/INT(MOD($A23/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D23" s="30">
+        <f>B23*C23/8</f>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="31">
+        <f>D23*2</f>
+        <v>4000</v>
+      </c>
+      <c r="F23" s="30">
+        <f>B23/8</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="30">
+        <f>IF(C23/8=12.5,12,C23/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H23" s="32">
+        <f>F23*G23*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="48">
+        <v>15</v>
+      </c>
+      <c r="B24" s="39">
+        <f>IF(MOD($A24,2)=0,320,256)/INT(MOD($A24/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C24" s="40">
+        <f>IF(MOD($A24,2)=0,200,160)/INT(MOD($A24/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D24" s="40">
+        <f>B24*C24/8</f>
+        <v>1280</v>
+      </c>
+      <c r="E24" s="41">
+        <f>D24*2</f>
+        <v>2560</v>
+      </c>
+      <c r="F24" s="40">
+        <f>B24/8</f>
+        <v>16</v>
+      </c>
+      <c r="G24" s="40">
+        <f>IF(C24/8=12.5,12,C24/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="42">
+        <f>F24*G24*2</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="A27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="48">
+        <v>16</v>
+      </c>
+      <c r="B28" s="61">
+        <f>IF(MOD($A28,2)=0,320,256)/INT(MOD($A28/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C28" s="20">
+        <f>IF(MOD($A28,2)=0,200,160)/INT(MOD($A28/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D28" s="21">
+        <f>B28*C28/8</f>
+        <v>8000</v>
+      </c>
+      <c r="E28" s="62">
+        <f>D28*4</f>
+        <v>32000</v>
+      </c>
+      <c r="F28" s="21">
+        <f>B28/8</f>
+        <v>40</v>
+      </c>
+      <c r="G28" s="21">
+        <f>IF(C28/8=12.5,12,C28/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H28" s="23">
+        <f>F28*G28*2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="48">
+        <v>17</v>
+      </c>
+      <c r="B29" s="63">
+        <f>IF(MOD($A29,2)=0,320,256)/INT(MOD($A29/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C29" s="29">
+        <f>IF(MOD($A29,2)=0,200,160)/INT(MOD($A29/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D29" s="30">
+        <f>B29*C29/8</f>
+        <v>5120</v>
+      </c>
+      <c r="E29" s="31">
+        <f>D29*4</f>
+        <v>20480</v>
+      </c>
+      <c r="F29" s="30">
+        <f>B29/8</f>
+        <v>32</v>
+      </c>
+      <c r="G29" s="30">
+        <f>IF(C29/8=12.5,12,C29/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H29" s="32">
+        <f>F29*G29*2</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="48">
+        <v>18</v>
+      </c>
+      <c r="B30" s="63">
+        <f>IF(MOD($A30,2)=0,320,256)/INT(MOD($A30/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C30" s="29">
+        <f>IF(MOD($A30,2)=0,200,160)/INT(MOD($A30/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D30" s="30">
+        <f>B30*C30/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E30" s="31">
+        <f>D30*4</f>
+        <v>16000</v>
+      </c>
+      <c r="F30" s="30">
+        <f>B30/8</f>
+        <v>40</v>
+      </c>
+      <c r="G30" s="30">
+        <f>IF(C30/8=12.5,12,C30/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H30" s="32">
+        <f>F30*G30*2</f>
+        <v>960</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="48">
+        <v>19</v>
+      </c>
+      <c r="B31" s="63">
+        <f>IF(MOD($A31,2)=0,320,256)/INT(MOD($A31/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C31" s="29">
+        <f>IF(MOD($A31,2)=0,200,160)/INT(MOD($A31/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D31" s="30">
+        <f>B31*C31/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E31" s="31">
+        <f>D31*4</f>
+        <v>10240</v>
+      </c>
+      <c r="F31" s="30">
+        <f>B31/8</f>
+        <v>32</v>
+      </c>
+      <c r="G31" s="30">
+        <f>IF(C31/8=12.5,12,C31/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H31" s="32">
+        <f>F31*G31*2</f>
+        <v>640</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="48">
+        <v>20</v>
+      </c>
+      <c r="B32" s="63">
+        <f>IF(MOD($A32,2)=0,320,256)/INT(MOD($A32/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C32" s="29">
+        <f>IF(MOD($A32,2)=0,200,160)/INT(MOD($A32/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D32" s="30">
+        <f>B32*C32/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E32" s="31">
+        <f>D32*4</f>
+        <v>16000</v>
+      </c>
+      <c r="F32" s="30">
+        <f>B32/8</f>
+        <v>20</v>
+      </c>
+      <c r="G32" s="30">
+        <f>IF(C32/8=12.5,12,C32/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H32" s="32">
+        <f>F32*G32*2</f>
+        <v>1000</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="48">
+        <v>21</v>
+      </c>
+      <c r="B33" s="63">
+        <f>IF(MOD($A33,2)=0,320,256)/INT(MOD($A33/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="D11" s="10">
+      <c r="C33" s="29">
+        <f>IF(MOD($A33,2)=0,200,160)/INT(MOD($A33/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D33" s="30">
+        <f>B33*C33/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E33" s="31">
+        <f>D33*4</f>
+        <v>10240</v>
+      </c>
+      <c r="F33" s="30">
+        <f>B33/8</f>
+        <v>16</v>
+      </c>
+      <c r="G33" s="30">
+        <f>IF(C33/8=12.5,12,C33/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H33" s="32">
+        <f>F33*G33*2</f>
+        <v>640</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="48">
+        <v>22</v>
+      </c>
+      <c r="B34" s="63">
+        <f>IF(MOD($A34,2)=0,320,256)/INT(MOD($A34/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C34" s="29">
+        <f>IF(MOD($A34,2)=0,200,160)/INT(MOD($A34/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D34" s="30">
+        <f>B34*C34/8</f>
+        <v>2000</v>
+      </c>
+      <c r="E34" s="31">
+        <f>D34*4</f>
+        <v>8000</v>
+      </c>
+      <c r="F34" s="30">
+        <f>B34/8</f>
+        <v>20</v>
+      </c>
+      <c r="G34" s="30">
+        <f>IF(C34/8=12.5,12,C34/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H34" s="32">
+        <f>F34*G34*2</f>
+        <v>480</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="48">
+        <v>23</v>
+      </c>
+      <c r="B35" s="64">
+        <f>IF(MOD($A35,2)=0,320,256)/INT(MOD($A35/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C35" s="39">
+        <f>IF(MOD($A35,2)=0,200,160)/INT(MOD($A35/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D35" s="40">
+        <f>B35*C35/8</f>
+        <v>1280</v>
+      </c>
+      <c r="E35" s="65">
+        <f>D35*4</f>
+        <v>5120</v>
+      </c>
+      <c r="F35" s="40">
+        <f>B35/8</f>
+        <v>16</v>
+      </c>
+      <c r="G35" s="40">
+        <f>IF(C35/8=12.5,12,C35/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H35" s="42">
+        <f>F35*G35*2</f>
+        <v>320</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>256</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="A38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="48">
+        <v>24</v>
+      </c>
+      <c r="B39" s="20">
+        <f>IF(MOD($A39,2)=0,320,256)/INT(MOD($A39/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C39" s="21">
+        <f>IF(MOD($A39,2)=0,200,160)/INT(MOD($A39/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="E11" s="10">
-        <f>C11*D11/8</f>
-        <v>3200</v>
-      </c>
-      <c r="F11" s="10">
-        <f>C11/8</f>
+      <c r="D39" s="21">
+        <f>B39*C39/8</f>
+        <v>8000</v>
+      </c>
+      <c r="E39" s="22">
+        <f>D39*8</f>
+        <v>64000</v>
+      </c>
+      <c r="F39" s="21">
+        <f>B39/8</f>
+        <v>40</v>
+      </c>
+      <c r="G39" s="21">
+        <f>IF(C39/8=12.5,12,C39/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H39" s="23">
+        <f>F39*G39*2</f>
+        <v>2000</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="48">
+        <v>25</v>
+      </c>
+      <c r="B40" s="29">
+        <f>IF(MOD($A40,2)=0,320,256)/INT(MOD($A40/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C40" s="30">
+        <f>IF(MOD($A40,2)=0,200,160)/INT(MOD($A40/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D40" s="30">
+        <f>B40*C40/8</f>
+        <v>5120</v>
+      </c>
+      <c r="E40" s="31">
+        <f>D40*8</f>
+        <v>40960</v>
+      </c>
+      <c r="F40" s="30">
+        <f>B40/8</f>
+        <v>32</v>
+      </c>
+      <c r="G40" s="30">
+        <f>IF(C40/8=12.5,12,C40/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H40" s="32">
+        <f>F40*G40*2</f>
+        <v>1280</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="48">
+        <v>26</v>
+      </c>
+      <c r="B41" s="29">
+        <f>IF(MOD($A41,2)=0,320,256)/INT(MOD($A41/4,2)+1)</f>
+        <v>320</v>
+      </c>
+      <c r="C41" s="30">
+        <f>IF(MOD($A41,2)=0,200,160)/INT(MOD($A41/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D41" s="30">
+        <f>B41*C41/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E41" s="31">
+        <f>D41*8</f>
+        <v>32000</v>
+      </c>
+      <c r="F41" s="30">
+        <f>B41/8</f>
+        <v>40</v>
+      </c>
+      <c r="G41" s="30">
+        <f>IF(C41/8=12.5,12,C41/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H41" s="32">
+        <f>F41*G41*2</f>
+        <v>960</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="48">
+        <v>27</v>
+      </c>
+      <c r="B42" s="29">
+        <f>IF(MOD($A42,2)=0,320,256)/INT(MOD($A42/4,2)+1)</f>
+        <v>256</v>
+      </c>
+      <c r="C42" s="30">
+        <f>IF(MOD($A42,2)=0,200,160)/INT(MOD($A42/2,2)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="D42" s="30">
+        <f>B42*C42/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E42" s="31">
+        <f>D42*8</f>
+        <v>20480</v>
+      </c>
+      <c r="F42" s="30">
+        <f>B42/8</f>
+        <v>32</v>
+      </c>
+      <c r="G42" s="30">
+        <f>IF(C42/8=12.5,12,C42/8)</f>
+        <v>10</v>
+      </c>
+      <c r="H42" s="32">
+        <f>F42*G42*2</f>
+        <v>640</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="48">
+        <v>28</v>
+      </c>
+      <c r="B43" s="29">
+        <f>IF(MOD($A43,2)=0,320,256)/INT(MOD($A43/4,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="C43" s="30">
+        <f>IF(MOD($A43,2)=0,200,160)/INT(MOD($A43/2,2)+1)</f>
+        <v>200</v>
+      </c>
+      <c r="D43" s="30">
+        <f>B43*C43/8</f>
+        <v>4000</v>
+      </c>
+      <c r="E43" s="31">
+        <f>D43*8</f>
+        <v>32000</v>
+      </c>
+      <c r="F43" s="30">
+        <f>B43/8</f>
+        <v>20</v>
+      </c>
+      <c r="G43" s="30">
+        <f>IF(C43/8=12.5,12,C43/8)</f>
+        <v>25</v>
+      </c>
+      <c r="H43" s="32">
+        <f>F43*G43*2</f>
+        <v>1000</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="48">
+        <v>29</v>
+      </c>
+      <c r="B44" s="29">
+        <f>IF(MOD($A44,2)=0,320,256)/INT(MOD($A44/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C44" s="30">
+        <f>IF(MOD($A44,2)=0,200,160)/INT(MOD($A44/2,2)+1)</f>
+        <v>160</v>
+      </c>
+      <c r="D44" s="30">
+        <f>B44*C44/8</f>
+        <v>2560</v>
+      </c>
+      <c r="E44" s="31">
+        <f>D44*8</f>
+        <v>20480</v>
+      </c>
+      <c r="F44" s="30">
+        <f>B44/8</f>
         <v>16</v>
       </c>
-      <c r="G11" s="10">
-        <f>D11/8</f>
-        <v>25</v>
-      </c>
-      <c r="H11" s="10">
-        <f>F11*G11*2</f>
-        <v>800</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="G44" s="30">
+        <f>IF(C44/8=12.5,12,C44/8)</f>
+        <v>20</v>
+      </c>
+      <c r="H44" s="32">
+        <f>F44*G44*2</f>
+        <v>640</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="48">
+        <v>30</v>
+      </c>
+      <c r="B45" s="29">
+        <f>IF(MOD($A45,2)=0,320,256)/INT(MOD($A45/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D12" s="10">
-        <v>200</v>
-      </c>
-      <c r="E12" s="10">
-        <f>C12*D12/8</f>
-        <v>4000</v>
-      </c>
-      <c r="F12" s="10">
-        <f>C12/8</f>
+      <c r="C45" s="30">
+        <f>IF(MOD($A45,2)=0,200,160)/INT(MOD($A45/2,2)+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="30">
+        <f>B45*C45/8</f>
+        <v>2000</v>
+      </c>
+      <c r="E45" s="31">
+        <f>D45*8</f>
+        <v>16000</v>
+      </c>
+      <c r="F45" s="30">
+        <f>B45/8</f>
         <v>20</v>
       </c>
-      <c r="G12" s="10">
-        <f>D12/8</f>
-        <v>25</v>
-      </c>
-      <c r="H12" s="10">
-        <f>F12*G12*2</f>
-        <v>1000</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10">
-        <v>256</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="G45" s="30">
+        <f>IF(C45/8=12.5,12,C45/8)</f>
+        <v>12</v>
+      </c>
+      <c r="H45" s="32">
+        <f>F45*G45*2</f>
+        <v>480</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="48">
+        <v>31</v>
+      </c>
+      <c r="B46" s="39">
+        <f>IF(MOD($A46,2)=0,320,256)/INT(MOD($A46/4,2)+1)</f>
+        <v>128</v>
+      </c>
+      <c r="C46" s="40">
+        <f>IF(MOD($A46,2)=0,200,160)/INT(MOD($A46/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="E13" s="10">
-        <f>C13*D13/8</f>
-        <v>2560</v>
-      </c>
-      <c r="F13" s="10">
-        <f>C13/8</f>
-        <v>32</v>
-      </c>
-      <c r="G13" s="10">
-        <f>D13/8</f>
+      <c r="D46" s="40">
+        <f>B46*C46/8</f>
+        <v>1280</v>
+      </c>
+      <c r="E46" s="65">
+        <f>D46*8</f>
+        <v>10240</v>
+      </c>
+      <c r="F46" s="40">
+        <f>B46/8</f>
+        <v>16</v>
+      </c>
+      <c r="G46" s="40">
+        <f>IF(C46/8=12.5,12,C46/8)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="10">
-        <f>F13*G13*2</f>
-        <v>640</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="H46" s="42">
+        <f>F46*G46*2</f>
         <v>320</v>
       </c>
-      <c r="D14" s="9">
-        <v>80</v>
-      </c>
-      <c r="E14" s="10">
-        <f>C14*D14/8</f>
-        <v>3200</v>
-      </c>
-      <c r="F14" s="10">
-        <f>C14/8</f>
-        <v>40</v>
-      </c>
-      <c r="G14" s="10">
-        <f>D14/8</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="10">
-        <f>F14*G14*2</f>
-        <v>800</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20">
-        <v>1</v>
-      </c>
-      <c r="O14" s="20">
-        <v>1</v>
-      </c>
-      <c r="P14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>1</v>
-      </c>
-      <c r="R14" s="20">
-        <f>$J$1*$J14+$K$1*$K14+$L$1*$L14+$M$1*$M14+$N$1*$N14+$O$1*$O14+$P$1*$P14+$Q$1*$Q14</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10">
-        <v>256</v>
-      </c>
-      <c r="D15" s="10">
-        <v>96</v>
-      </c>
-      <c r="E15" s="10">
-        <f>C15*D15/8</f>
-        <v>3072</v>
-      </c>
-      <c r="F15" s="10">
-        <f>C15/8</f>
-        <v>32</v>
-      </c>
-      <c r="G15" s="10">
-        <f>D15/8</f>
-        <v>12</v>
-      </c>
-      <c r="H15" s="10">
-        <f>F15*G15*2</f>
-        <v>768</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9">
-        <v>320</v>
-      </c>
-      <c r="D16" s="9">
-        <v>96</v>
-      </c>
-      <c r="E16" s="10">
-        <f>C16*D16/8</f>
-        <v>3840</v>
-      </c>
-      <c r="F16" s="10">
-        <f>C16/8</f>
-        <v>40</v>
-      </c>
-      <c r="G16" s="10">
-        <f>D16/8</f>
-        <v>12</v>
-      </c>
-      <c r="H16" s="10">
-        <f>F16*G16*2</f>
-        <v>960</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10">
-        <v>256</v>
-      </c>
-      <c r="D17" s="10">
-        <v>160</v>
-      </c>
-      <c r="E17" s="10">
-        <f>C17*D17/8</f>
-        <v>5120</v>
-      </c>
-      <c r="F17" s="10">
-        <f>C17/8</f>
-        <v>32</v>
-      </c>
-      <c r="G17" s="10">
-        <f>D17/8</f>
-        <v>20</v>
-      </c>
-      <c r="H17" s="10">
-        <f>F17*G17*2</f>
-        <v>1280</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9">
-        <v>320</v>
-      </c>
-      <c r="D18" s="9">
-        <v>160</v>
-      </c>
-      <c r="E18" s="10">
-        <f>C18*D18/8</f>
-        <v>6400</v>
-      </c>
-      <c r="F18" s="10">
-        <f>C18/8</f>
-        <v>40</v>
-      </c>
-      <c r="G18" s="10">
-        <f>D18/8</f>
-        <v>20</v>
-      </c>
-      <c r="H18" s="10">
-        <f>F18*G18*2</f>
-        <v>1600</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <v>256</v>
-      </c>
-      <c r="D19" s="10">
-        <v>200</v>
-      </c>
-      <c r="E19" s="10">
-        <f>C19*D19/8</f>
-        <v>6400</v>
-      </c>
-      <c r="F19" s="10">
-        <f>C19/8</f>
-        <v>32</v>
-      </c>
-      <c r="G19" s="10">
-        <f>D19/8</f>
-        <v>25</v>
-      </c>
-      <c r="H19" s="10">
-        <f>F19*G19*2</f>
-        <v>1600</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9">
-        <v>320</v>
-      </c>
-      <c r="D20" s="9">
-        <v>200</v>
-      </c>
-      <c r="E20" s="10">
-        <f>C20*D20/8</f>
-        <v>8000</v>
-      </c>
-      <c r="F20" s="10">
-        <f>C20/8</f>
-        <v>40</v>
-      </c>
-      <c r="G20" s="10">
-        <f>D20/8</f>
-        <v>25</v>
-      </c>
-      <c r="H20" s="10">
-        <f>F20*G20*2</f>
-        <v>2000</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>0</v>
-      </c>
-      <c r="P21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <f>$J$1*$J21+$K$1*$K21+$L$1*$L21+$M$1*$M21+$N$1*$N21+$O$1*$O21+$P$1*$P21+$Q$1*$Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" ht="14.25"/>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25"/>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="31" ht="14.25"/>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25"/>
-    <row r="34" ht="14.25"/>
-    <row r="35" ht="14.25"/>
-    <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25"/>
-    <row r="38" ht="14.25"/>
-    <row r="39" ht="14.25"/>
-    <row r="40" ht="14.25"/>
-    <row r="41" ht="14.25"/>
-    <row r="42" ht="14.25"/>
-    <row r="43" ht="14.25"/>
-    <row r="44" ht="14.25"/>
-    <row r="45" ht="14.25"/>
-    <row r="46" ht="14.25"/>
+      <c r="J46" s="1"/>
+    </row>
     <row r="47" ht="14.25"/>
-    <row r="48" ht="14.25"/>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="14.25"/>
+    <row r="48" ht="14.25">
+      <c r="C48" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="69"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="C49" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="71"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="C50" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="73"/>
+    </row>
     <row r="51" ht="14.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0094006A-003A-4E91-8535-00F800AF0093}">
+            <xm:f>8000</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E6:E13 E17:E24 E28:E35 E39:E46</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/Resolution_Study_Minimization.xlsx
+++ b/docs/Resolution_Study_Minimization.xlsx
@@ -30,127 +30,127 @@
     <t xml:space="preserve">0: Tile/Text Mode</t>
   </si>
   <si>
+    <t>Mode*</t>
+  </si>
+  <si>
+    <t>Horiz.</t>
+  </si>
+  <si>
+    <t>Vert.</t>
+  </si>
+  <si>
+    <t>bit-plane</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>Decoding:</t>
+  </si>
+  <si>
+    <t>1:Bitmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Depth 0-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode 0-3</t>
+  </si>
+  <si>
+    <t>Even/Odd</t>
+  </si>
+  <si>
+    <t>GPU_OPTIONS:</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>VSync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main App</t>
+  </si>
+  <si>
+    <t>(RESERVED)</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+  </si>
+  <si>
+    <t>GFX_MODE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = 2 color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 = 4 color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 = 16 clrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 = 256 clrs</t>
+  </si>
+  <si>
+    <t>Ext_Bitmap</t>
+  </si>
+  <si>
+    <t>Ext_Color</t>
+  </si>
+  <si>
+    <t>Std_Bitmap</t>
+  </si>
+  <si>
+    <t>Std_Color</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:Tile 1:BMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:2x  01:4x  10:16  11:256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:Text 1:BMP</t>
+  </si>
+  <si>
+    <t>Over-Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Even modes are based on 640x400 @ 70hz, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Odd modes are based on 512x320 @ 70hz.</t>
+  </si>
+  <si>
     <t>Even</t>
   </si>
   <si>
-    <t>Mode*</t>
-  </si>
-  <si>
-    <t>Horiz.</t>
-  </si>
-  <si>
-    <t>Vert.</t>
-  </si>
-  <si>
-    <t>bit-plane</t>
-  </si>
-  <si>
-    <t>colors</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>Rows</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>Decoding:</t>
-  </si>
-  <si>
-    <t>1:Bitmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color Depth 0-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode 0-3</t>
-  </si>
-  <si>
-    <t>Even/Odd</t>
-  </si>
-  <si>
     <t>H_OScan</t>
   </si>
   <si>
     <t>V_OScan</t>
   </si>
   <si>
-    <t>GPU_OPTIONS:</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>VSync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main App</t>
-  </si>
-  <si>
-    <t>(RESERVED)</t>
-  </si>
-  <si>
     <t>Odd</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
-    <t>GFX_MODE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00 = 2 color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 = 4 color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 = 16 clrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 = 256 clrs</t>
-  </si>
-  <si>
-    <t>Ext_Bitmap</t>
-  </si>
-  <si>
-    <t>Ext_Color</t>
-  </si>
-  <si>
-    <t>Std_Bitmap</t>
-  </si>
-  <si>
-    <t>Std_Color</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Even modes are based on 640x400 @ 70hz, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:Tile 1:BMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:2x  01:4x  10:16  11:256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:Text 1:BMP</t>
-  </si>
-  <si>
-    <t>Over-Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Odd modes are based on 512x320 @ 70hz.</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Display:</t>
@@ -216,14 +216,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -869,194 +869,194 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="6" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="7" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="8" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="10" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="3" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="16" borderId="8" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="11" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="13" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="14" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="15" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="16" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="17" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="18" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="20" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="15" borderId="2" numFmtId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="6" borderId="21" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="3" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="8" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="22" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="15" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="26" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="3" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="21" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="16" borderId="5" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="6" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="7" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="7" borderId="8" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="7" borderId="9" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="7" borderId="10" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="7" borderId="3" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="16" borderId="8" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="11" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="11" borderId="3" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="27" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="3" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="28" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="29" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="15" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="30" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="31" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="13" borderId="21" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="14" borderId="32" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="13" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="14" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="15" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="16" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="17" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="18" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="20" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="21" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="8" borderId="3" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="3" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="8" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="22" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="15" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="26" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="3" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="21" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="3" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="27" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="13" borderId="3" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="28" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="29" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="15" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="30" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="31" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="21" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="32" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="14" borderId="33" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,1347 +1675,1254 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
-      <c r="T3" s="4">
-        <v>640</v>
-      </c>
-      <c r="U3" s="4">
-        <v>400</v>
-      </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="9" t="s">
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="19">
-        <v>0</v>
-      </c>
-      <c r="B6" s="20">
+      <c r="A6" s="17">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18">
         <f>IF(MOD($A6,2)=0,320,256)/INT(MOD($A6/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <f>IF(MOD($A6,2)=0,200,160)/INT(MOD($A6/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <f>B6*C6/8</f>
         <v>8000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <f>D6</f>
         <v>8000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f>B6/8</f>
         <v>40</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <f>IF(C6/8=12.5,12,C6/8)</f>
         <v>25</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f>F6*G6*2</f>
         <v>2000</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>7</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <v>6</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="24">
         <v>5</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="22">
         <v>4</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="23">
         <v>3</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <v>2</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="24">
         <v>1</v>
       </c>
-      <c r="Q6" s="27">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="28">
-        <f>$T$3/((T6*2)+2)</f>
-        <v>320</v>
-      </c>
-      <c r="W6" s="28">
-        <f>$U$3/((U6*2)+2)</f>
-        <v>200</v>
+      <c r="Q6" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <f>IF(MOD($A7,2)=0,320,256)/INT(MOD($A7/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <f>IF(MOD($A7,2)=0,200,160)/INT(MOD($A7/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <f>B7*C7/8</f>
         <v>5120</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <f>D7</f>
         <v>5120</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <f>B7/8</f>
         <v>32</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <f>IF(C7/8=12.5,12,C7/8)</f>
         <v>20</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="29">
         <f>F7*G7*2</f>
         <v>1280</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="33">
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="30">
+        <v>0</v>
+      </c>
+      <c r="P7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>0</v>
+      </c>
+      <c r="R7" s="31">
         <f>$J$1*$J7+$K$1*$K7+$L$1*$L7+$M$1*$M7+$N$1*$N7+$O$1*$O7+$P$1*$P7+$Q$1*$Q7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1</v>
-      </c>
-      <c r="V7" s="28">
-        <f>$T$3/((T7*2)+2)</f>
-        <v>320</v>
-      </c>
-      <c r="W7" s="28">
-        <f>$U$3/((U7*2)+2)</f>
-        <v>100</v>
-      </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <f>IF(MOD($A8,2)=0,320,256)/INT(MOD($A8/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <f>IF(MOD($A8,2)=0,200,160)/INT(MOD($A8/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <f>B8*C8/8</f>
         <v>4000</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <f>D8</f>
         <v>4000</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f>B8/8</f>
         <v>40</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <f>IF(C8/8=12.5,12,C8/8)</f>
         <v>12</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="29">
         <f>F8*G8*2</f>
         <v>960</v>
       </c>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="28">
-        <f>$T$3/((T8*2)+2)</f>
-        <v>160</v>
-      </c>
-      <c r="W8" s="28">
-        <f>$U$3/((U8*2)+2)</f>
-        <v>200</v>
-      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <f>IF(MOD($A9,2)=0,320,256)/INT(MOD($A9/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="27">
         <f>IF(MOD($A9,2)=0,200,160)/INT(MOD($A9/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f>B9*C9/8</f>
         <v>2560</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <f>D9</f>
         <v>2560</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <f>B9/8</f>
         <v>32</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <f>IF(C9/8=12.5,12,C9/8)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="29">
         <f>F9*G9*2</f>
         <v>640</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="28">
-        <f>$T$3/((T9*2)+2)</f>
-        <v>160</v>
-      </c>
-      <c r="W9" s="28">
-        <f>$U$3/((U9*2)+2)</f>
-        <v>100</v>
-      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <f>IF(MOD($A10,2)=0,320,256)/INT(MOD($A10/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="27">
         <f>IF(MOD($A10,2)=0,200,160)/INT(MOD($A10/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <f>B10*C10/8</f>
         <v>4000</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <f>D10</f>
         <v>4000</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <f>B10/8</f>
         <v>20</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <f>IF(C10/8=12.5,12,C10/8)</f>
         <v>25</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="29">
         <f>F10*G10*2</f>
         <v>1000</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <f>IF(MOD($A11,2)=0,320,256)/INT(MOD($A11/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="27">
         <f>IF(MOD($A11,2)=0,200,160)/INT(MOD($A11/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <f>B11*C11/8</f>
         <v>2560</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <f>D11</f>
         <v>2560</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <f>B11/8</f>
         <v>16</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <f>IF(C11/8=12.5,12,C11/8)</f>
         <v>20</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <f>F11*G11*2</f>
         <v>640</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="T11" s="4">
-        <v>512</v>
-      </c>
-      <c r="U11" s="4">
-        <v>320</v>
-      </c>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="J11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <f>IF(MOD($A12,2)=0,320,256)/INT(MOD($A12/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <f>IF(MOD($A12,2)=0,200,160)/INT(MOD($A12/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <f>B12*C12/8</f>
         <v>2000</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <f>D12</f>
         <v>2000</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <f>B12/8</f>
         <v>20</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <f>IF(C12/8=12.5,12,C12/8)</f>
         <v>12</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="29">
         <f>F12*G12*2</f>
         <v>480</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="T12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>7</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="37">
         <f>IF(MOD($A13,2)=0,320,256)/INT(MOD($A13/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <f>IF(MOD($A13,2)=0,200,160)/INT(MOD($A13/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <f>B13*C13/8</f>
         <v>1280</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <f>D13</f>
         <v>1280</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <f>B13/8</f>
         <v>16</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="38">
         <f>IF(C13/8=12.5,12,C13/8)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="40">
         <f>F13*G13*2</f>
         <v>320</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="T13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="9" t="s">
+      <c r="J13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0</v>
+      </c>
+      <c r="R14" s="44">
+        <f>$J$1*$J14+$K$1*$K14+$L$1*$L14+$M$1*$M14+$N$1*$N14+$O$1*$O14+$P$1*$P14+$Q$1*$Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="A16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="46">
-        <f>$J$1*$J14+$K$1*$K14+$L$1*$L14+$M$1*$M14+$N$1*$N14+$O$1*$O14+$P$1*$P14+$Q$1*$Q14</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28">
-        <f>$T$11/((T14*2)+2)</f>
-        <v>256</v>
-      </c>
-      <c r="W14" s="28">
-        <f>$U$11/((U14*2)+2)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="V15" s="28">
-        <f>$T$11/((T15*2)+2)</f>
-        <v>256</v>
-      </c>
-      <c r="W15" s="28">
-        <f>$U$11/((U15*2)+2)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="I16" s="1"/>
-      <c r="T16" s="4">
-        <v>1</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="28">
-        <f>$T$11/((T16*2)+2)</f>
-        <v>128</v>
-      </c>
-      <c r="W16" s="28">
-        <f>$U$11/((U16*2)+2)</f>
-        <v>160</v>
-      </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="48">
+      <c r="A17" s="46">
         <v>8</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f>IF(MOD($A17,2)=0,320,256)/INT(MOD($A17/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <f>IF(MOD($A17,2)=0,200,160)/INT(MOD($A17/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f>B17*C17/8</f>
         <v>8000</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <f>D17*2</f>
         <v>16000</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <f>B17/8</f>
         <v>40</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <f>IF(C17/8=12.5,12,C17/8)</f>
         <v>25</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <f>F17*G17*2</f>
         <v>2000</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="V17" s="28">
-        <f>$T$11/((T17*2)+2)</f>
-        <v>128</v>
-      </c>
-      <c r="W17" s="28">
-        <f>$U$11/((U17*2)+2)</f>
-        <v>80</v>
-      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="48">
+      <c r="A18" s="46">
         <v>9</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <f>IF(MOD($A18,2)=0,320,256)/INT(MOD($A18/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="27">
         <f>IF(MOD($A18,2)=0,200,160)/INT(MOD($A18/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="27">
         <f>B18*C18/8</f>
         <v>5120</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="28">
         <f>D18*2</f>
         <v>10240</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="27">
         <f>B18/8</f>
         <v>32</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="27">
         <f>IF(C18/8=12.5,12,C18/8)</f>
         <v>20</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="29">
         <f>F18*G18*2</f>
         <v>1280</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="48">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <f>IF(MOD($A19,2)=0,320,256)/INT(MOD($A19/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="27">
         <f>IF(MOD($A19,2)=0,200,160)/INT(MOD($A19/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="27">
         <f>B19*C19/8</f>
         <v>4000</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <f>D19*2</f>
         <v>8000</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <f>B19/8</f>
         <v>40</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="27">
         <f>IF(C19/8=12.5,12,C19/8)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="29">
         <f>F19*G19*2</f>
         <v>960</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="50"/>
+      <c r="P19" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="Q19" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="52"/>
-      <c r="P19" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="53" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="48">
+      <c r="A20" s="46">
         <v>11</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <f>IF(MOD($A20,2)=0,320,256)/INT(MOD($A20/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="27">
         <f>IF(MOD($A20,2)=0,200,160)/INT(MOD($A20/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="27">
         <f>B20*C20/8</f>
         <v>2560</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <f>D20*2</f>
         <v>5120</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="27">
         <f>B20/8</f>
         <v>32</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="27">
         <f>IF(C20/8=12.5,12,C20/8)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="29">
         <f>F20*G20*2</f>
         <v>640</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="53" t="s">
-        <v>44</v>
+      <c r="J20" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="48">
+      <c r="A21" s="46">
         <v>12</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <f>IF(MOD($A21,2)=0,320,256)/INT(MOD($A21/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <f>IF(MOD($A21,2)=0,200,160)/INT(MOD($A21/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="27">
         <f>B21*C21/8</f>
         <v>4000</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <f>D21*2</f>
         <v>8000</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <f>B21/8</f>
         <v>20</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <f>IF(C21/8=12.5,12,C21/8)</f>
         <v>25</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="29">
         <f>F21*G21*2</f>
         <v>1000</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
-      <c r="N21" s="28">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="60">
+      <c r="J21" s="30">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0</v>
+      </c>
+      <c r="L21" s="30">
+        <v>0</v>
+      </c>
+      <c r="M21" s="57">
+        <v>0</v>
+      </c>
+      <c r="N21" s="57">
+        <v>0</v>
+      </c>
+      <c r="O21" s="30">
+        <v>0</v>
+      </c>
+      <c r="P21" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>0</v>
+      </c>
+      <c r="R21" s="58">
         <f>$J$1*$J21+$K$1*$K21+$L$1*$L21+$M$1*$M21+$N$1*$N21+$O$1*$O21+$P$1*$P21+$Q$1*$Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="48">
+      <c r="A22" s="46">
         <v>13</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <f>IF(MOD($A22,2)=0,320,256)/INT(MOD($A22/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <f>IF(MOD($A22,2)=0,200,160)/INT(MOD($A22/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="27">
         <f>B22*C22/8</f>
         <v>2560</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <f>D22*2</f>
         <v>5120</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="27">
         <f>B22/8</f>
         <v>16</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="27">
         <f>IF(C22/8=12.5,12,C22/8)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="29">
         <f>F22*G22*2</f>
         <v>640</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="48">
+      <c r="A23" s="46">
         <v>14</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <f>IF(MOD($A23,2)=0,320,256)/INT(MOD($A23/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <f>IF(MOD($A23,2)=0,200,160)/INT(MOD($A23/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="27">
         <f>B23*C23/8</f>
         <v>2000</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <f>D23*2</f>
         <v>4000</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="27">
         <f>B23/8</f>
         <v>20</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="27">
         <f>IF(C23/8=12.5,12,C23/8)</f>
         <v>12</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="29">
         <f>F23*G23*2</f>
         <v>480</v>
       </c>
+      <c r="J23" s="59" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="48">
+      <c r="A24" s="46">
         <v>15</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="37">
         <f>IF(MOD($A24,2)=0,320,256)/INT(MOD($A24/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="38">
         <f>IF(MOD($A24,2)=0,200,160)/INT(MOD($A24/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="38">
         <f>B24*C24/8</f>
         <v>1280</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <f>D24*2</f>
         <v>2560</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <f>B24/8</f>
         <v>16</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="38">
         <f>IF(C24/8=12.5,12,C24/8)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <f>F24*G24*2</f>
         <v>320</v>
       </c>
+      <c r="J24" s="59" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" ht="16.5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>16</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="16.5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="G27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>12</v>
+      <c r="J27" s="30">
+        <v>640</v>
+      </c>
+      <c r="K27" s="30">
+        <v>400</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="48">
+      <c r="A28" s="46">
         <v>16</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="60">
         <f>IF(MOD($A28,2)=0,320,256)/INT(MOD($A28/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <f>IF(MOD($A28,2)=0,200,160)/INT(MOD($A28/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <f>B28*C28/8</f>
         <v>8000</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="61">
         <f>D28*4</f>
         <v>32000</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <f>B28/8</f>
         <v>40</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <f>IF(C28/8=12.5,12,C28/8)</f>
         <v>25</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="21">
         <f>F28*G28*2</f>
         <v>2000</v>
       </c>
+      <c r="J28" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="62" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="48">
+      <c r="A29" s="46">
         <v>17</v>
       </c>
       <c r="B29" s="63">
         <f>IF(MOD($A29,2)=0,320,256)/INT(MOD($A29/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="26">
         <f>IF(MOD($A29,2)=0,200,160)/INT(MOD($A29/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="27">
         <f>B29*C29/8</f>
         <v>5120</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="28">
         <f>D29*4</f>
         <v>20480</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="27">
         <f>B29/8</f>
         <v>32</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="27">
         <f>IF(C29/8=12.5,12,C29/8)</f>
         <v>20</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="29">
         <f>F29*G29*2</f>
         <v>1280</v>
       </c>
+      <c r="J29" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="48">
+      <c r="A30" s="46">
         <v>18</v>
       </c>
       <c r="B30" s="63">
         <f>IF(MOD($A30,2)=0,320,256)/INT(MOD($A30/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="26">
         <f>IF(MOD($A30,2)=0,200,160)/INT(MOD($A30/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="27">
         <f>B30*C30/8</f>
         <v>4000</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="28">
         <f>D30*4</f>
         <v>16000</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="27">
         <f>B30/8</f>
         <v>40</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="27">
         <f>IF(C30/8=12.5,12,C30/8)</f>
         <v>12</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="29">
         <f>F30*G30*2</f>
         <v>960</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="57">
+        <f>$J$27/((J30*2)+2)</f>
+        <v>320</v>
+      </c>
+      <c r="M30" s="57">
+        <f>$K$27/((K30*2)+2)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>19</v>
       </c>
       <c r="B31" s="63">
         <f>IF(MOD($A31,2)=0,320,256)/INT(MOD($A31/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="26">
         <f>IF(MOD($A31,2)=0,200,160)/INT(MOD($A31/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="27">
         <f>B31*C31/8</f>
         <v>2560</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="28">
         <f>D31*4</f>
         <v>10240</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="27">
         <f>B31/8</f>
         <v>32</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="27">
         <f>IF(C31/8=12.5,12,C31/8)</f>
         <v>10</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="29">
         <f>F31*G31*2</f>
         <v>640</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="30">
+        <v>0</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+      <c r="L31" s="57">
+        <f>$J$27/((J31*2)+2)</f>
+        <v>320</v>
+      </c>
+      <c r="M31" s="57">
+        <f>$K$27/((K31*2)+2)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="48">
+      <c r="A32" s="46">
         <v>20</v>
       </c>
       <c r="B32" s="63">
         <f>IF(MOD($A32,2)=0,320,256)/INT(MOD($A32/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <f>IF(MOD($A32,2)=0,200,160)/INT(MOD($A32/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="27">
         <f>B32*C32/8</f>
         <v>4000</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="28">
         <f>D32*4</f>
         <v>16000</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="27">
         <f>B32/8</f>
         <v>20</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="27">
         <f>IF(C32/8=12.5,12,C32/8)</f>
         <v>25</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="29">
         <f>F32*G32*2</f>
         <v>1000</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="30">
+        <v>1</v>
+      </c>
+      <c r="K32" s="30">
+        <v>0</v>
+      </c>
+      <c r="L32" s="57">
+        <f>$J$27/((J32*2)+2)</f>
+        <v>160</v>
+      </c>
+      <c r="M32" s="57">
+        <f>$K$27/((K32*2)+2)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="48">
+      <c r="A33" s="46">
         <v>21</v>
       </c>
       <c r="B33" s="63">
         <f>IF(MOD($A33,2)=0,320,256)/INT(MOD($A33/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <f>IF(MOD($A33,2)=0,200,160)/INT(MOD($A33/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="27">
         <f>B33*C33/8</f>
         <v>2560</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="28">
         <f>D33*4</f>
         <v>10240</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="27">
         <f>B33/8</f>
         <v>16</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="27">
         <f>IF(C33/8=12.5,12,C33/8)</f>
         <v>20</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="29">
         <f>F33*G33*2</f>
         <v>640</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="30">
+        <v>1</v>
+      </c>
+      <c r="K33" s="30">
+        <v>1</v>
+      </c>
+      <c r="L33" s="57">
+        <f>$J$27/((J33*2)+2)</f>
+        <v>160</v>
+      </c>
+      <c r="M33" s="57">
+        <f>$K$27/((K33*2)+2)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="48">
+      <c r="A34" s="46">
         <v>22</v>
       </c>
       <c r="B34" s="63">
         <f>IF(MOD($A34,2)=0,320,256)/INT(MOD($A34/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="26">
         <f>IF(MOD($A34,2)=0,200,160)/INT(MOD($A34/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="27">
         <f>B34*C34/8</f>
         <v>2000</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="28">
         <f>D34*4</f>
         <v>8000</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="27">
         <f>B34/8</f>
         <v>20</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="27">
         <f>IF(C34/8=12.5,12,C34/8)</f>
         <v>12</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="29">
         <f>F34*G34*2</f>
         <v>480</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="48">
+      <c r="A35" s="46">
         <v>23</v>
       </c>
       <c r="B35" s="64">
         <f>IF(MOD($A35,2)=0,320,256)/INT(MOD($A35/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <f>IF(MOD($A35,2)=0,200,160)/INT(MOD($A35/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="38">
         <f>B35*C35/8</f>
         <v>1280</v>
       </c>
@@ -3023,326 +2930,403 @@
         <f>D35*4</f>
         <v>5120</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="38">
         <f>B35/8</f>
         <v>16</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="38">
         <f>IF(C35/8=12.5,12,C35/8)</f>
         <v>10</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="40">
         <f>F35*G35*2</f>
         <v>320</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="30">
+        <v>512</v>
+      </c>
+      <c r="K35" s="30">
+        <v>320</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="J36" s="1"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="J36" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
     </row>
     <row r="37" ht="16.5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <v>256</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="G38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="30">
+        <v>0</v>
+      </c>
+      <c r="K38" s="30">
+        <v>0</v>
+      </c>
+      <c r="L38" s="57">
+        <f>$J$35/((J38*2)+2)</f>
+        <v>256</v>
+      </c>
+      <c r="M38" s="57">
+        <f>$K$35/((K38*2)+2)</f>
+        <v>160</v>
+      </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="48">
+      <c r="A39" s="46">
         <v>24</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="18">
         <f>IF(MOD($A39,2)=0,320,256)/INT(MOD($A39/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="19">
         <f>IF(MOD($A39,2)=0,200,160)/INT(MOD($A39/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <f>B39*C39/8</f>
         <v>8000</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="20">
         <f>D39*8</f>
         <v>64000</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="19">
         <f>B39/8</f>
         <v>40</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="19">
         <f>IF(C39/8=12.5,12,C39/8)</f>
         <v>25</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="21">
         <f>F39*G39*2</f>
         <v>2000</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="30">
+        <v>0</v>
+      </c>
+      <c r="K39" s="30">
+        <v>1</v>
+      </c>
+      <c r="L39" s="57">
+        <f>$J$35/((J39*2)+2)</f>
+        <v>256</v>
+      </c>
+      <c r="M39" s="57">
+        <f>$K$35/((K39*2)+2)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="48">
+      <c r="A40" s="46">
         <v>25</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="26">
         <f>IF(MOD($A40,2)=0,320,256)/INT(MOD($A40/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="27">
         <f>IF(MOD($A40,2)=0,200,160)/INT(MOD($A40/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="27">
         <f>B40*C40/8</f>
         <v>5120</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="28">
         <f>D40*8</f>
         <v>40960</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="27">
         <f>B40/8</f>
         <v>32</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="27">
         <f>IF(C40/8=12.5,12,C40/8)</f>
         <v>20</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="29">
         <f>F40*G40*2</f>
         <v>1280</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="30">
+        <v>1</v>
+      </c>
+      <c r="K40" s="30">
+        <v>0</v>
+      </c>
+      <c r="L40" s="57">
+        <f>$J$35/((J40*2)+2)</f>
+        <v>128</v>
+      </c>
+      <c r="M40" s="57">
+        <f>$K$35/((K40*2)+2)</f>
+        <v>160</v>
+      </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="48">
+      <c r="A41" s="46">
         <v>26</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="26">
         <f>IF(MOD($A41,2)=0,320,256)/INT(MOD($A41/4,2)+1)</f>
         <v>320</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="27">
         <f>IF(MOD($A41,2)=0,200,160)/INT(MOD($A41/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="27">
         <f>B41*C41/8</f>
         <v>4000</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="28">
         <f>D41*8</f>
         <v>32000</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="27">
         <f>B41/8</f>
         <v>40</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="27">
         <f>IF(C41/8=12.5,12,C41/8)</f>
         <v>12</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="29">
         <f>F41*G41*2</f>
         <v>960</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="30">
+        <v>1</v>
+      </c>
+      <c r="K41" s="30">
+        <v>1</v>
+      </c>
+      <c r="L41" s="57">
+        <f>$J$35/((J41*2)+2)</f>
+        <v>128</v>
+      </c>
+      <c r="M41" s="57">
+        <f>$K$35/((K41*2)+2)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="48">
+      <c r="A42" s="46">
         <v>27</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="26">
         <f>IF(MOD($A42,2)=0,320,256)/INT(MOD($A42/4,2)+1)</f>
         <v>256</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="27">
         <f>IF(MOD($A42,2)=0,200,160)/INT(MOD($A42/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="27">
         <f>B42*C42/8</f>
         <v>2560</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="28">
         <f>D42*8</f>
         <v>20480</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="27">
         <f>B42/8</f>
         <v>32</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="27">
         <f>IF(C42/8=12.5,12,C42/8)</f>
         <v>10</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="29">
         <f>F42*G42*2</f>
         <v>640</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="48">
+      <c r="A43" s="46">
         <v>28</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="26">
         <f>IF(MOD($A43,2)=0,320,256)/INT(MOD($A43/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="27">
         <f>IF(MOD($A43,2)=0,200,160)/INT(MOD($A43/2,2)+1)</f>
         <v>200</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="27">
         <f>B43*C43/8</f>
         <v>4000</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="28">
         <f>D43*8</f>
         <v>32000</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="27">
         <f>B43/8</f>
         <v>20</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="27">
         <f>IF(C43/8=12.5,12,C43/8)</f>
         <v>25</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="29">
         <f>F43*G43*2</f>
         <v>1000</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="48">
+      <c r="A44" s="46">
         <v>29</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="26">
         <f>IF(MOD($A44,2)=0,320,256)/INT(MOD($A44/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="27">
         <f>IF(MOD($A44,2)=0,200,160)/INT(MOD($A44/2,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="27">
         <f>B44*C44/8</f>
         <v>2560</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <f>D44*8</f>
         <v>20480</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="27">
         <f>B44/8</f>
         <v>16</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="27">
         <f>IF(C44/8=12.5,12,C44/8)</f>
         <v>20</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="29">
         <f>F44*G44*2</f>
         <v>640</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="48">
+      <c r="A45" s="46">
         <v>30</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="26">
         <f>IF(MOD($A45,2)=0,320,256)/INT(MOD($A45/4,2)+1)</f>
         <v>160</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="27">
         <f>IF(MOD($A45,2)=0,200,160)/INT(MOD($A45/2,2)+1)</f>
         <v>100</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="27">
         <f>B45*C45/8</f>
         <v>2000</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="28">
         <f>D45*8</f>
         <v>16000</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="27">
         <f>B45/8</f>
         <v>20</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="27">
         <f>IF(C45/8=12.5,12,C45/8)</f>
         <v>12</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="29">
         <f>F45*G45*2</f>
         <v>480</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="48">
+      <c r="A46" s="46">
         <v>31</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="37">
         <f>IF(MOD($A46,2)=0,320,256)/INT(MOD($A46/4,2)+1)</f>
         <v>128</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="38">
         <f>IF(MOD($A46,2)=0,200,160)/INT(MOD($A46/2,2)+1)</f>
         <v>80</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="38">
         <f>B46*C46/8</f>
         <v>1280</v>
       </c>
@@ -3350,15 +3334,15 @@
         <f>D46*8</f>
         <v>10240</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="38">
         <f>B46/8</f>
         <v>16</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="38">
         <f>IF(C46/8=12.5,12,C46/8)</f>
         <v>10</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="40">
         <f>F46*G46*2</f>
         <v>320</v>
       </c>
@@ -3424,7 +3408,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0094006A-003A-4E91-8535-00F800AF0093}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00970053-00B3-4398-8B2C-003900B500E3}">
             <xm:f>8000</xm:f>
             <x14:dxf>
               <font>

--- a/docs/Resolution_Study_Minimization.xlsx
+++ b/docs/Resolution_Study_Minimization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>single</t>
   </si>
@@ -72,25 +72,34 @@
     <t>GPU_OPTIONS:</t>
   </si>
   <si>
+    <t>Ext_Bitmap</t>
+  </si>
+  <si>
+    <t>Ext_Colorc</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
     <t>Debug</t>
   </si>
   <si>
-    <t>VSync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main App</t>
-  </si>
-  <si>
-    <t>(RESERVED)</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
-    <t>GFX_MODE:</t>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>fullscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphics Modes</t>
   </si>
   <si>
     <t xml:space="preserve">00 = 2 color</t>
@@ -105,9 +114,6 @@
     <t xml:space="preserve">11 = 256 clrs</t>
   </si>
   <si>
-    <t>Ext_Bitmap</t>
-  </si>
-  <si>
     <t>Ext_Color</t>
   </si>
   <si>
@@ -153,6 +159,12 @@
     <t>Odd</t>
   </si>
   <si>
+    <t>GPU_MODE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Mode (0-31)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Display:</t>
   </si>
   <si>
@@ -165,7 +177,7 @@
     <t xml:space="preserve">8 Tile Modes</t>
   </si>
   <si>
-    <t xml:space="preserve">16 Bitmap Modes</t>
+    <t xml:space="preserve">16 of 32 Bitmap Modes</t>
   </si>
   <si>
     <t xml:space="preserve">32 Bitmap Modes</t>
@@ -333,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -412,21 +424,21 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="none"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="none"/>
       <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="none"/>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thick">
@@ -440,26 +452,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="none"/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -613,6 +605,145 @@
       <diagonal style="none"/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
       <left style="none"/>
       <right style="none"/>
       <top style="thick">
@@ -624,163 +755,21 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left style="none"/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="none"/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
       <bottom style="none"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal style="none"/>
     </border>
     <border>
@@ -857,7 +846,7 @@
     <xf fontId="2" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -899,10 +888,10 @@
     <xf fontId="6" fillId="7" borderId="8" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="10" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="6" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="7" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="6" fillId="7" borderId="3" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,163 +900,181 @@
     <xf fontId="2" fillId="16" borderId="8" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="14" borderId="9" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="10" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="14" borderId="11" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="13" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="14" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="15" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="16" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="13" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="14" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="14" borderId="17" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="15" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="16" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="17" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="14" borderId="17" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="14" borderId="18" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="19" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="19" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="20" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="8" borderId="3" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="20" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="21" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="22" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="8" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="13" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="3" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="21" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="3" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="9" borderId="8" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="9" borderId="22" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="9" borderId="15" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="0" fillId="10" borderId="19" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="11" borderId="3" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="26" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="3" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="8" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="13" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="19" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="14" borderId="27" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="10" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="28" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="29" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="8" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="13" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="7" borderId="3" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="6" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="7" borderId="26" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="26" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="31" numFmtId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="26" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="3" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="21" numFmtId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="16" borderId="4" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="16" borderId="3" numFmtId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="3" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="27" numFmtId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="3" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="28" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="29" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="15" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="30" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="13" borderId="31" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="21" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="14" borderId="32" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="33" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="34" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="34" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="11" borderId="35" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,19 +1086,19 @@
     <xf fontId="2" fillId="11" borderId="37" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="11" borderId="38" numFmtId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="11" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="14" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="23" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="26" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="13" borderId="9" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="12" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="22" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="25" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="22" numFmtId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1627,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1748,31 +1755,31 @@
         <v>0</v>
       </c>
       <c r="B6" s="18">
-        <f>IF(MOD($A6,2)=0,320,256)/INT(MOD($A6/4,2)+1)</f>
+        <f t="shared" ref="B6:B9" si="0">IF(MOD($A6,2)=0,320,256)/INT(MOD($A6/4,2)+1)</f>
         <v>320</v>
       </c>
       <c r="C6" s="19">
-        <f>IF(MOD($A6,2)=0,200,160)/INT(MOD($A6/2,2)+1)</f>
+        <f t="shared" ref="C6:C9" si="1">IF(MOD($A6,2)=0,200,160)/INT(MOD($A6/2,2)+1)</f>
         <v>200</v>
       </c>
       <c r="D6" s="19">
-        <f>B6*C6/8</f>
+        <f t="shared" ref="D6:D9" si="2">B6*C6/8</f>
         <v>8000</v>
       </c>
       <c r="E6" s="20">
-        <f>D6</f>
+        <f t="shared" ref="E6:E9" si="3">D6</f>
         <v>8000</v>
       </c>
       <c r="F6" s="19">
-        <f>B6/8</f>
+        <f t="shared" ref="F6:F9" si="4">B6/8</f>
         <v>40</v>
       </c>
       <c r="G6" s="19">
-        <f>IF(C6/8=12.5,12,C6/8)</f>
+        <f t="shared" ref="G6:G9" si="5">IF(C6/8=12.5,12,C6/8)</f>
         <v>25</v>
       </c>
       <c r="H6" s="21">
-        <f>F6*G6*2</f>
+        <f t="shared" ref="H6:H9" si="6">F6*G6*2</f>
         <v>2000</v>
       </c>
       <c r="J6" s="22">
@@ -1805,31 +1812,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="26">
-        <f>IF(MOD($A7,2)=0,320,256)/INT(MOD($A7/4,2)+1)</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="C7" s="27">
-        <f>IF(MOD($A7,2)=0,200,160)/INT(MOD($A7/2,2)+1)</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="D7" s="27">
-        <f>B7*C7/8</f>
+        <f t="shared" si="2"/>
         <v>5120</v>
       </c>
       <c r="E7" s="28">
-        <f>D7</f>
+        <f t="shared" si="3"/>
         <v>5120</v>
       </c>
       <c r="F7" s="27">
-        <f>B7/8</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G7" s="27">
-        <f>IF(C7/8=12.5,12,C7/8)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="H7" s="29">
-        <f>F7*G7*2</f>
+        <f t="shared" si="6"/>
         <v>1280</v>
       </c>
       <c r="J7" s="30">
@@ -1866,31 +1873,31 @@
         <v>2</v>
       </c>
       <c r="B8" s="26">
-        <f>IF(MOD($A8,2)=0,320,256)/INT(MOD($A8/4,2)+1)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="C8" s="27">
-        <f>IF(MOD($A8,2)=0,200,160)/INT(MOD($A8/2,2)+1)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D8" s="27">
-        <f>B8*C8/8</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="E8" s="28">
-        <f>D8</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="F8" s="27">
-        <f>B8/8</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G8" s="27">
-        <f>IF(C8/8=12.5,12,C8/8)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H8" s="29">
-        <f>F8*G8*2</f>
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
     </row>
@@ -1899,31 +1906,31 @@
         <v>3</v>
       </c>
       <c r="B9" s="26">
-        <f>IF(MOD($A9,2)=0,320,256)/INT(MOD($A9/4,2)+1)</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="C9" s="27">
-        <f>IF(MOD($A9,2)=0,200,160)/INT(MOD($A9/2,2)+1)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D9" s="27">
-        <f>B9*C9/8</f>
+        <f t="shared" si="2"/>
         <v>2560</v>
       </c>
       <c r="E9" s="28">
-        <f>D9</f>
+        <f t="shared" si="3"/>
         <v>2560</v>
       </c>
       <c r="F9" s="27">
-        <f>B9/8</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G9" s="27">
-        <f>IF(C9/8=12.5,12,C9/8)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H9" s="29">
-        <f>F9*G9*2</f>
+        <f t="shared" si="6"/>
         <v>640</v>
       </c>
       <c r="I9" s="1"/>
@@ -1933,31 +1940,31 @@
         <v>4</v>
       </c>
       <c r="B10" s="26">
-        <f>IF(MOD($A10,2)=0,320,256)/INT(MOD($A10/4,2)+1)</f>
+        <f t="shared" ref="B10:B46" si="7">IF(MOD($A10,2)=0,320,256)/INT(MOD($A10/4,2)+1)</f>
         <v>160</v>
       </c>
       <c r="C10" s="27">
-        <f>IF(MOD($A10,2)=0,200,160)/INT(MOD($A10/2,2)+1)</f>
+        <f t="shared" ref="C10:C46" si="8">IF(MOD($A10,2)=0,200,160)/INT(MOD($A10/2,2)+1)</f>
         <v>200</v>
       </c>
       <c r="D10" s="27">
-        <f>B10*C10/8</f>
+        <f t="shared" ref="D10:D46" si="9">B10*C10/8</f>
         <v>4000</v>
       </c>
       <c r="E10" s="28">
-        <f>D10</f>
+        <f t="shared" ref="E10:E13" si="10">D10</f>
         <v>4000</v>
       </c>
       <c r="F10" s="27">
-        <f>B10/8</f>
+        <f t="shared" ref="F10:F46" si="11">B10/8</f>
         <v>20</v>
       </c>
       <c r="G10" s="27">
-        <f>IF(C10/8=12.5,12,C10/8)</f>
+        <f t="shared" ref="G10:G46" si="12">IF(C10/8=12.5,12,C10/8)</f>
         <v>25</v>
       </c>
       <c r="H10" s="29">
-        <f>F10*G10*2</f>
+        <f t="shared" ref="H10:H46" si="13">F10*G10*2</f>
         <v>1000</v>
       </c>
       <c r="I10" s="1"/>
@@ -1967,31 +1974,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="26">
-        <f>IF(MOD($A11,2)=0,320,256)/INT(MOD($A11/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="C11" s="27">
-        <f>IF(MOD($A11,2)=0,200,160)/INT(MOD($A11/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D11" s="27">
-        <f>B11*C11/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E11" s="28">
-        <f>D11</f>
+        <f t="shared" si="10"/>
         <v>2560</v>
       </c>
       <c r="F11" s="27">
-        <f>B11/8</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G11" s="27">
-        <f>IF(C11/8=12.5,12,C11/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H11" s="29">
-        <f>F11*G11*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="I11" s="1"/>
@@ -2005,105 +2012,117 @@
         <v>6</v>
       </c>
       <c r="B12" s="26">
-        <f>IF(MOD($A12,2)=0,320,256)/INT(MOD($A12/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C12" s="27">
-        <f>IF(MOD($A12,2)=0,200,160)/INT(MOD($A12/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D12" s="27">
-        <f>B12*C12/8</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="E12" s="28">
-        <f>D12</f>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="F12" s="27">
-        <f>B12/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G12" s="27">
-        <f>IF(C12/8=12.5,12,C12/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H12" s="29">
-        <f>F12*G12*2</f>
+        <f t="shared" si="13"/>
         <v>480</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="33" t="s">
+      <c r="K12" s="34" t="s">
         <v>19</v>
       </c>
+      <c r="L12" s="35"/>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
+      <c r="O12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="17">
         <v>7</v>
       </c>
-      <c r="B13" s="37">
-        <f>IF(MOD($A13,2)=0,320,256)/INT(MOD($A13/4,2)+1)</f>
+      <c r="B13" s="36">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="C13" s="38">
-        <f>IF(MOD($A13,2)=0,200,160)/INT(MOD($A13/2,2)+1)</f>
+      <c r="C13" s="37">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="D13" s="38">
-        <f>B13*C13/8</f>
+      <c r="D13" s="37">
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
-      <c r="E13" s="39">
-        <f>D13</f>
+      <c r="E13" s="38">
+        <f t="shared" si="10"/>
         <v>1280</v>
       </c>
-      <c r="F13" s="38">
-        <f>B13/8</f>
+      <c r="F13" s="37">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="G13" s="38">
-        <f>IF(C13/8=12.5,12,C13/8)</f>
+      <c r="G13" s="37">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H13" s="40">
-        <f>F13*G13*2</f>
+      <c r="H13" s="39">
+        <f t="shared" si="13"/>
         <v>320</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="J13" s="40">
+        <v>7</v>
+      </c>
+      <c r="K13" s="40">
+        <v>6</v>
+      </c>
+      <c r="L13" s="41">
+        <v>5</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -2190,31 +2209,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="18">
-        <f>IF(MOD($A17,2)=0,320,256)/INT(MOD($A17/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C17" s="19">
-        <f>IF(MOD($A17,2)=0,200,160)/INT(MOD($A17/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D17" s="19">
-        <f>B17*C17/8</f>
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
       <c r="E17" s="20">
-        <f>D17*2</f>
+        <f t="shared" ref="E17:E24" si="14">D17*2</f>
         <v>16000</v>
       </c>
       <c r="F17" s="19">
-        <f>B17/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G17" s="19">
-        <f>IF(C17/8=12.5,12,C17/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H17" s="21">
-        <f>F17*G17*2</f>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="I17" s="1"/>
@@ -2224,49 +2243,49 @@
         <v>9</v>
       </c>
       <c r="B18" s="26">
-        <f>IF(MOD($A18,2)=0,320,256)/INT(MOD($A18/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C18" s="27">
-        <f>IF(MOD($A18,2)=0,200,160)/INT(MOD($A18/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D18" s="27">
-        <f>B18*C18/8</f>
+        <f t="shared" si="9"/>
         <v>5120</v>
       </c>
       <c r="E18" s="28">
-        <f>D18*2</f>
+        <f t="shared" si="14"/>
         <v>10240</v>
       </c>
       <c r="F18" s="27">
-        <f>B18/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G18" s="27">
-        <f>IF(C18/8=12.5,12,C18/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H18" s="29">
-        <f>F18*G18*2</f>
+        <f t="shared" si="13"/>
         <v>1280</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
@@ -2276,53 +2295,53 @@
         <v>10</v>
       </c>
       <c r="B19" s="26">
-        <f>IF(MOD($A19,2)=0,320,256)/INT(MOD($A19/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C19" s="27">
-        <f>IF(MOD($A19,2)=0,200,160)/INT(MOD($A19/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D19" s="27">
-        <f>B19*C19/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E19" s="28">
-        <f>D19*2</f>
+        <f t="shared" si="14"/>
         <v>8000</v>
       </c>
       <c r="F19" s="27">
-        <f>B19/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G19" s="27">
-        <f>IF(C19/8=12.5,12,C19/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H19" s="29">
-        <f>F19*G19*2</f>
+        <f t="shared" si="13"/>
         <v>960</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="48" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" s="50"/>
       <c r="P19" s="48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -2330,53 +2349,53 @@
         <v>11</v>
       </c>
       <c r="B20" s="26">
-        <f>IF(MOD($A20,2)=0,320,256)/INT(MOD($A20/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C20" s="27">
-        <f>IF(MOD($A20,2)=0,200,160)/INT(MOD($A20/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="D20" s="27">
-        <f>B20*C20/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E20" s="28">
-        <f>D20*2</f>
+        <f t="shared" si="14"/>
         <v>5120</v>
       </c>
       <c r="F20" s="27">
-        <f>B20/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G20" s="27">
-        <f>IF(C20/8=12.5,12,C20/8)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H20" s="29">
-        <f>F20*G20*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L20" s="53"/>
-      <c r="M20" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="54" t="s">
+      <c r="M20" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="52" t="s">
         <v>38</v>
       </c>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53" t="s">
+        <v>40</v>
+      </c>
       <c r="Q20" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -2384,46 +2403,46 @@
         <v>12</v>
       </c>
       <c r="B21" s="26">
-        <f>IF(MOD($A21,2)=0,320,256)/INT(MOD($A21/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C21" s="27">
-        <f>IF(MOD($A21,2)=0,200,160)/INT(MOD($A21/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D21" s="27">
-        <f>B21*C21/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E21" s="28">
-        <f>D21*2</f>
+        <f t="shared" si="14"/>
         <v>8000</v>
       </c>
       <c r="F21" s="27">
-        <f>B21/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G21" s="27">
-        <f>IF(C21/8=12.5,12,C21/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H21" s="29">
-        <f>F21*G21*2</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J21" s="30">
         <v>0</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="43">
         <v>0</v>
       </c>
       <c r="L21" s="30">
         <v>0</v>
       </c>
-      <c r="M21" s="57">
-        <v>0</v>
-      </c>
-      <c r="N21" s="57">
+      <c r="M21" s="43">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
         <v>0</v>
       </c>
       <c r="O21" s="30">
@@ -2435,7 +2454,7 @@
       <c r="Q21" s="30">
         <v>0</v>
       </c>
-      <c r="R21" s="58">
+      <c r="R21" s="54">
         <f>$J$1*$J21+$K$1*$K21+$L$1*$L21+$M$1*$M21+$N$1*$N21+$O$1*$O21+$P$1*$P21+$Q$1*$Q21</f>
         <v>0</v>
       </c>
@@ -2445,31 +2464,31 @@
         <v>13</v>
       </c>
       <c r="B22" s="26">
-        <f>IF(MOD($A22,2)=0,320,256)/INT(MOD($A22/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="C22" s="27">
-        <f>IF(MOD($A22,2)=0,200,160)/INT(MOD($A22/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D22" s="27">
-        <f>B22*C22/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E22" s="28">
-        <f>D22*2</f>
+        <f t="shared" si="14"/>
         <v>5120</v>
       </c>
       <c r="F22" s="27">
-        <f>B22/8</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G22" s="27">
-        <f>IF(C22/8=12.5,12,C22/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H22" s="29">
-        <f>F22*G22*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
     </row>
@@ -2478,80 +2497,80 @@
         <v>14</v>
       </c>
       <c r="B23" s="26">
-        <f>IF(MOD($A23,2)=0,320,256)/INT(MOD($A23/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C23" s="27">
-        <f>IF(MOD($A23,2)=0,200,160)/INT(MOD($A23/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D23" s="27">
-        <f>B23*C23/8</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="E23" s="28">
-        <f>D23*2</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="F23" s="27">
-        <f>B23/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G23" s="27">
-        <f>IF(C23/8=12.5,12,C23/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H23" s="29">
-        <f>F23*G23*2</f>
+        <f t="shared" si="13"/>
         <v>480</v>
       </c>
-      <c r="J23" s="59" t="s">
-        <v>39</v>
+      <c r="J23" s="55" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="46">
         <v>15</v>
       </c>
-      <c r="B24" s="37">
-        <f>IF(MOD($A24,2)=0,320,256)/INT(MOD($A24/4,2)+1)</f>
+      <c r="B24" s="36">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="C24" s="38">
-        <f>IF(MOD($A24,2)=0,200,160)/INT(MOD($A24/2,2)+1)</f>
+      <c r="C24" s="37">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="D24" s="38">
-        <f>B24*C24/8</f>
+      <c r="D24" s="37">
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
-      <c r="E24" s="39">
-        <f>D24*2</f>
+      <c r="E24" s="38">
+        <f t="shared" si="14"/>
         <v>2560</v>
       </c>
-      <c r="F24" s="38">
-        <f>B24/8</f>
+      <c r="F24" s="37">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="G24" s="38">
-        <f>IF(C24/8=12.5,12,C24/8)</f>
+      <c r="G24" s="37">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H24" s="40">
-        <f>F24*G24*2</f>
+      <c r="H24" s="39">
+        <f t="shared" si="13"/>
         <v>320</v>
       </c>
-      <c r="J24" s="59" t="s">
-        <v>40</v>
+      <c r="J24" s="55" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
@@ -2607,83 +2626,83 @@
       <c r="A28" s="46">
         <v>16</v>
       </c>
-      <c r="B28" s="60">
-        <f>IF(MOD($A28,2)=0,320,256)/INT(MOD($A28/4,2)+1)</f>
+      <c r="B28" s="56">
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C28" s="18">
-        <f>IF(MOD($A28,2)=0,200,160)/INT(MOD($A28/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D28" s="19">
-        <f>B28*C28/8</f>
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-      <c r="E28" s="61">
-        <f>D28*4</f>
+      <c r="E28" s="57">
+        <f t="shared" ref="E28:E35" si="15">D28*4</f>
         <v>32000</v>
       </c>
       <c r="F28" s="19">
-        <f>B28/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G28" s="19">
-        <f>IF(C28/8=12.5,12,C28/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H28" s="21">
-        <f>F28*G28*2</f>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
-      <c r="J28" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="62" t="s">
-        <v>41</v>
+      <c r="J28" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="46">
         <v>17</v>
       </c>
-      <c r="B29" s="63">
-        <f>IF(MOD($A29,2)=0,320,256)/INT(MOD($A29/4,2)+1)</f>
+      <c r="B29" s="59">
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C29" s="26">
-        <f>IF(MOD($A29,2)=0,200,160)/INT(MOD($A29/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D29" s="27">
-        <f>B29*C29/8</f>
+        <f t="shared" si="9"/>
         <v>5120</v>
       </c>
       <c r="E29" s="28">
-        <f>D29*4</f>
+        <f t="shared" si="15"/>
         <v>20480</v>
       </c>
       <c r="F29" s="27">
-        <f>B29/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G29" s="27">
-        <f>IF(C29/8=12.5,12,C29/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H29" s="29">
-        <f>F29*G29*2</f>
+        <f t="shared" si="13"/>
         <v>1280</v>
       </c>
-      <c r="J29" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="62" t="s">
+      <c r="J29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="62" t="s">
+      <c r="M29" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2691,32 +2710,32 @@
       <c r="A30" s="46">
         <v>18</v>
       </c>
-      <c r="B30" s="63">
-        <f>IF(MOD($A30,2)=0,320,256)/INT(MOD($A30/4,2)+1)</f>
+      <c r="B30" s="59">
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C30" s="26">
-        <f>IF(MOD($A30,2)=0,200,160)/INT(MOD($A30/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D30" s="27">
-        <f>B30*C30/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E30" s="28">
-        <f>D30*4</f>
+        <f t="shared" si="15"/>
         <v>16000</v>
       </c>
       <c r="F30" s="27">
-        <f>B30/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G30" s="27">
-        <f>IF(C30/8=12.5,12,C30/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H30" s="29">
-        <f>F30*G30*2</f>
+        <f t="shared" si="13"/>
         <v>960</v>
       </c>
       <c r="J30" s="30">
@@ -2725,12 +2744,12 @@
       <c r="K30" s="30">
         <v>0</v>
       </c>
-      <c r="L30" s="57">
-        <f>$J$27/((J30*2)+2)</f>
+      <c r="L30" s="43">
+        <f t="shared" ref="L30:L33" si="16">$J$27/((J30*2)+2)</f>
         <v>320</v>
       </c>
-      <c r="M30" s="57">
-        <f>$K$27/((K30*2)+2)</f>
+      <c r="M30" s="43">
+        <f t="shared" ref="M30:M33" si="17">$K$27/((K30*2)+2)</f>
         <v>200</v>
       </c>
     </row>
@@ -2738,32 +2757,32 @@
       <c r="A31" s="46">
         <v>19</v>
       </c>
-      <c r="B31" s="63">
-        <f>IF(MOD($A31,2)=0,320,256)/INT(MOD($A31/4,2)+1)</f>
+      <c r="B31" s="59">
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C31" s="26">
-        <f>IF(MOD($A31,2)=0,200,160)/INT(MOD($A31/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="D31" s="27">
-        <f>B31*C31/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E31" s="28">
-        <f>D31*4</f>
+        <f t="shared" si="15"/>
         <v>10240</v>
       </c>
       <c r="F31" s="27">
-        <f>B31/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G31" s="27">
-        <f>IF(C31/8=12.5,12,C31/8)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H31" s="29">
-        <f>F31*G31*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="J31" s="30">
@@ -2772,12 +2791,12 @@
       <c r="K31" s="30">
         <v>1</v>
       </c>
-      <c r="L31" s="57">
-        <f>$J$27/((J31*2)+2)</f>
+      <c r="L31" s="43">
+        <f t="shared" si="16"/>
         <v>320</v>
       </c>
-      <c r="M31" s="57">
-        <f>$K$27/((K31*2)+2)</f>
+      <c r="M31" s="43">
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
     </row>
@@ -2785,32 +2804,32 @@
       <c r="A32" s="46">
         <v>20</v>
       </c>
-      <c r="B32" s="63">
-        <f>IF(MOD($A32,2)=0,320,256)/INT(MOD($A32/4,2)+1)</f>
+      <c r="B32" s="59">
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C32" s="26">
-        <f>IF(MOD($A32,2)=0,200,160)/INT(MOD($A32/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D32" s="27">
-        <f>B32*C32/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E32" s="28">
-        <f>D32*4</f>
+        <f t="shared" si="15"/>
         <v>16000</v>
       </c>
       <c r="F32" s="27">
-        <f>B32/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G32" s="27">
-        <f>IF(C32/8=12.5,12,C32/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H32" s="29">
-        <f>F32*G32*2</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J32" s="30">
@@ -2819,12 +2838,12 @@
       <c r="K32" s="30">
         <v>0</v>
       </c>
-      <c r="L32" s="57">
-        <f>$J$27/((J32*2)+2)</f>
+      <c r="L32" s="43">
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
-      <c r="M32" s="57">
-        <f>$K$27/((K32*2)+2)</f>
+      <c r="M32" s="43">
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
     </row>
@@ -2832,32 +2851,32 @@
       <c r="A33" s="46">
         <v>21</v>
       </c>
-      <c r="B33" s="63">
-        <f>IF(MOD($A33,2)=0,320,256)/INT(MOD($A33/4,2)+1)</f>
+      <c r="B33" s="59">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="C33" s="26">
-        <f>IF(MOD($A33,2)=0,200,160)/INT(MOD($A33/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D33" s="27">
-        <f>B33*C33/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E33" s="28">
-        <f>D33*4</f>
+        <f t="shared" si="15"/>
         <v>10240</v>
       </c>
       <c r="F33" s="27">
-        <f>B33/8</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G33" s="27">
-        <f>IF(C33/8=12.5,12,C33/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H33" s="29">
-        <f>F33*G33*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="J33" s="30">
@@ -2866,12 +2885,12 @@
       <c r="K33" s="30">
         <v>1</v>
       </c>
-      <c r="L33" s="57">
-        <f>$J$27/((J33*2)+2)</f>
+      <c r="L33" s="43">
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
-      <c r="M33" s="57">
-        <f>$K$27/((K33*2)+2)</f>
+      <c r="M33" s="43">
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
     </row>
@@ -2879,32 +2898,32 @@
       <c r="A34" s="46">
         <v>22</v>
       </c>
-      <c r="B34" s="63">
-        <f>IF(MOD($A34,2)=0,320,256)/INT(MOD($A34/4,2)+1)</f>
+      <c r="B34" s="59">
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C34" s="26">
-        <f>IF(MOD($A34,2)=0,200,160)/INT(MOD($A34/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D34" s="27">
-        <f>B34*C34/8</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="E34" s="28">
-        <f>D34*4</f>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="F34" s="27">
-        <f>B34/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G34" s="27">
-        <f>IF(C34/8=12.5,12,C34/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H34" s="29">
-        <f>F34*G34*2</f>
+        <f t="shared" si="13"/>
         <v>480</v>
       </c>
       <c r="L34" s="30"/>
@@ -2914,32 +2933,32 @@
       <c r="A35" s="46">
         <v>23</v>
       </c>
-      <c r="B35" s="64">
-        <f>IF(MOD($A35,2)=0,320,256)/INT(MOD($A35/4,2)+1)</f>
+      <c r="B35" s="60">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="C35" s="37">
-        <f>IF(MOD($A35,2)=0,200,160)/INT(MOD($A35/2,2)+1)</f>
+      <c r="C35" s="36">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="D35" s="38">
-        <f>B35*C35/8</f>
+      <c r="D35" s="37">
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
-      <c r="E35" s="65">
-        <f>D35*4</f>
+      <c r="E35" s="61">
+        <f t="shared" si="15"/>
         <v>5120</v>
       </c>
-      <c r="F35" s="38">
-        <f>B35/8</f>
+      <c r="F35" s="37">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="G35" s="38">
-        <f>IF(C35/8=12.5,12,C35/8)</f>
+      <c r="G35" s="37">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H35" s="40">
-        <f>F35*G35*2</f>
+      <c r="H35" s="39">
+        <f t="shared" si="13"/>
         <v>320</v>
       </c>
       <c r="J35" s="30">
@@ -2948,26 +2967,26 @@
       <c r="K35" s="30">
         <v>320</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="57"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
-      <c r="J36" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="J36" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
     </row>
     <row r="37" ht="16.5">
       <c r="A37" s="4"/>
@@ -2984,16 +3003,16 @@
       <c r="H37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="62" t="s">
+      <c r="J37" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="62" t="s">
+      <c r="M37" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3028,12 +3047,12 @@
       <c r="K38" s="30">
         <v>0</v>
       </c>
-      <c r="L38" s="57">
-        <f>$J$35/((J38*2)+2)</f>
+      <c r="L38" s="43">
+        <f t="shared" ref="L38:L41" si="18">$J$35/((J38*2)+2)</f>
         <v>256</v>
       </c>
-      <c r="M38" s="57">
-        <f>$K$35/((K38*2)+2)</f>
+      <c r="M38" s="43">
+        <f t="shared" ref="M38:M41" si="19">$K$35/((K38*2)+2)</f>
         <v>160</v>
       </c>
     </row>
@@ -3042,31 +3061,31 @@
         <v>24</v>
       </c>
       <c r="B39" s="18">
-        <f>IF(MOD($A39,2)=0,320,256)/INT(MOD($A39/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C39" s="19">
-        <f>IF(MOD($A39,2)=0,200,160)/INT(MOD($A39/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D39" s="19">
-        <f>B39*C39/8</f>
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
       <c r="E39" s="20">
-        <f>D39*8</f>
+        <f t="shared" ref="E39:E46" si="20">D39*8</f>
         <v>64000</v>
       </c>
       <c r="F39" s="19">
-        <f>B39/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G39" s="19">
-        <f>IF(C39/8=12.5,12,C39/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H39" s="21">
-        <f>F39*G39*2</f>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="J39" s="30">
@@ -3075,12 +3094,12 @@
       <c r="K39" s="30">
         <v>1</v>
       </c>
-      <c r="L39" s="57">
-        <f>$J$35/((J39*2)+2)</f>
+      <c r="L39" s="43">
+        <f t="shared" si="18"/>
         <v>256</v>
       </c>
-      <c r="M39" s="57">
-        <f>$K$35/((K39*2)+2)</f>
+      <c r="M39" s="43">
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
     </row>
@@ -3089,31 +3108,31 @@
         <v>25</v>
       </c>
       <c r="B40" s="26">
-        <f>IF(MOD($A40,2)=0,320,256)/INT(MOD($A40/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C40" s="27">
-        <f>IF(MOD($A40,2)=0,200,160)/INT(MOD($A40/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D40" s="27">
-        <f>B40*C40/8</f>
+        <f t="shared" si="9"/>
         <v>5120</v>
       </c>
       <c r="E40" s="28">
-        <f>D40*8</f>
+        <f t="shared" si="20"/>
         <v>40960</v>
       </c>
       <c r="F40" s="27">
-        <f>B40/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G40" s="27">
-        <f>IF(C40/8=12.5,12,C40/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H40" s="29">
-        <f>F40*G40*2</f>
+        <f t="shared" si="13"/>
         <v>1280</v>
       </c>
       <c r="J40" s="30">
@@ -3122,12 +3141,12 @@
       <c r="K40" s="30">
         <v>0</v>
       </c>
-      <c r="L40" s="57">
-        <f>$J$35/((J40*2)+2)</f>
+      <c r="L40" s="43">
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
-      <c r="M40" s="57">
-        <f>$K$35/((K40*2)+2)</f>
+      <c r="M40" s="43">
+        <f t="shared" si="19"/>
         <v>160</v>
       </c>
     </row>
@@ -3136,31 +3155,31 @@
         <v>26</v>
       </c>
       <c r="B41" s="26">
-        <f>IF(MOD($A41,2)=0,320,256)/INT(MOD($A41/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C41" s="27">
-        <f>IF(MOD($A41,2)=0,200,160)/INT(MOD($A41/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D41" s="27">
-        <f>B41*C41/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E41" s="28">
-        <f>D41*8</f>
+        <f t="shared" si="20"/>
         <v>32000</v>
       </c>
       <c r="F41" s="27">
-        <f>B41/8</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G41" s="27">
-        <f>IF(C41/8=12.5,12,C41/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H41" s="29">
-        <f>F41*G41*2</f>
+        <f t="shared" si="13"/>
         <v>960</v>
       </c>
       <c r="J41" s="30">
@@ -3169,12 +3188,12 @@
       <c r="K41" s="30">
         <v>1</v>
       </c>
-      <c r="L41" s="57">
-        <f>$J$35/((J41*2)+2)</f>
+      <c r="L41" s="43">
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
-      <c r="M41" s="57">
-        <f>$K$35/((K41*2)+2)</f>
+      <c r="M41" s="43">
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
     </row>
@@ -3183,31 +3202,31 @@
         <v>27</v>
       </c>
       <c r="B42" s="26">
-        <f>IF(MOD($A42,2)=0,320,256)/INT(MOD($A42/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="C42" s="27">
-        <f>IF(MOD($A42,2)=0,200,160)/INT(MOD($A42/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="D42" s="27">
-        <f>B42*C42/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E42" s="28">
-        <f>D42*8</f>
+        <f t="shared" si="20"/>
         <v>20480</v>
       </c>
       <c r="F42" s="27">
-        <f>B42/8</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G42" s="27">
-        <f>IF(C42/8=12.5,12,C42/8)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H42" s="29">
-        <f>F42*G42*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="J42" s="1"/>
@@ -3217,182 +3236,262 @@
         <v>28</v>
       </c>
       <c r="B43" s="26">
-        <f>IF(MOD($A43,2)=0,320,256)/INT(MOD($A43/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C43" s="27">
-        <f>IF(MOD($A43,2)=0,200,160)/INT(MOD($A43/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D43" s="27">
-        <f>B43*C43/8</f>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="E43" s="28">
-        <f>D43*8</f>
+        <f t="shared" si="20"/>
         <v>32000</v>
       </c>
       <c r="F43" s="27">
-        <f>B43/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G43" s="27">
-        <f>IF(C43/8=12.5,12,C43/8)</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H43" s="29">
-        <f>F43*G43*2</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="46">
         <v>29</v>
       </c>
       <c r="B44" s="26">
-        <f>IF(MOD($A44,2)=0,320,256)/INT(MOD($A44/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="C44" s="27">
-        <f>IF(MOD($A44,2)=0,200,160)/INT(MOD($A44/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D44" s="27">
-        <f>B44*C44/8</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="E44" s="28">
-        <f>D44*8</f>
+        <f t="shared" si="20"/>
         <v>20480</v>
       </c>
       <c r="F44" s="27">
-        <f>B44/8</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G44" s="27">
-        <f>IF(C44/8=12.5,12,C44/8)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H44" s="29">
-        <f>F44*G44*2</f>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
-      <c r="J44" s="1"/>
+      <c r="J44" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="67"/>
+      <c r="M44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="46">
         <v>30</v>
       </c>
       <c r="B45" s="26">
-        <f>IF(MOD($A45,2)=0,320,256)/INT(MOD($A45/4,2)+1)</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C45" s="27">
-        <f>IF(MOD($A45,2)=0,200,160)/INT(MOD($A45/2,2)+1)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D45" s="27">
-        <f>B45*C45/8</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="E45" s="28">
-        <f>D45*8</f>
+        <f t="shared" si="20"/>
         <v>16000</v>
       </c>
       <c r="F45" s="27">
-        <f>B45/8</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G45" s="27">
-        <f>IF(C45/8=12.5,12,C45/8)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H45" s="29">
-        <f>F45*G45*2</f>
+        <f t="shared" si="13"/>
         <v>480</v>
       </c>
-      <c r="J45" s="1"/>
+      <c r="J45" s="22">
+        <v>7</v>
+      </c>
+      <c r="K45" s="22">
+        <v>6</v>
+      </c>
+      <c r="L45" s="23">
+        <v>5</v>
+      </c>
+      <c r="M45" s="69">
+        <v>4</v>
+      </c>
+      <c r="N45" s="69">
+        <v>3</v>
+      </c>
+      <c r="O45" s="69">
+        <v>2</v>
+      </c>
+      <c r="P45" s="69">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>0</v>
+      </c>
+      <c r="R45" s="70"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="46">
         <v>31</v>
       </c>
-      <c r="B46" s="37">
-        <f>IF(MOD($A46,2)=0,320,256)/INT(MOD($A46/4,2)+1)</f>
+      <c r="B46" s="36">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="C46" s="38">
-        <f>IF(MOD($A46,2)=0,200,160)/INT(MOD($A46/2,2)+1)</f>
+      <c r="C46" s="37">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="D46" s="38">
-        <f>B46*C46/8</f>
+      <c r="D46" s="37">
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
-      <c r="E46" s="65">
-        <f>D46*8</f>
+      <c r="E46" s="61">
+        <f t="shared" si="20"/>
         <v>10240</v>
       </c>
-      <c r="F46" s="38">
-        <f>B46/8</f>
+      <c r="F46" s="37">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="G46" s="38">
-        <f>IF(C46/8=12.5,12,C46/8)</f>
+      <c r="G46" s="37">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H46" s="40">
-        <f>F46*G46*2</f>
+      <c r="H46" s="39">
+        <f t="shared" si="13"/>
         <v>320</v>
       </c>
-      <c r="J46" s="1"/>
+      <c r="J46" s="30">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30">
+        <v>0</v>
+      </c>
+      <c r="L46" s="30">
+        <v>0</v>
+      </c>
+      <c r="M46" s="30">
+        <v>0</v>
+      </c>
+      <c r="N46" s="30">
+        <v>0</v>
+      </c>
+      <c r="O46" s="30">
+        <v>0</v>
+      </c>
+      <c r="P46" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="71">
+        <v>0</v>
+      </c>
+      <c r="R46" s="31">
+        <f>$J$1*$J46+$K$1*$K46+$L$1*$L46+$M$1*$M46+$N$1*$N46+$O$1*$O46+$P$1*$P46+$Q$1*$Q46</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
-      <c r="C48" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="69"/>
+      <c r="C48" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="75"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="C49" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="71"/>
+      <c r="C49" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="77"/>
+      <c r="E49" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="77"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="C50" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="73"/>
+      <c r="C50" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="79"/>
     </row>
     <row r="51" ht="14.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:Q44"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="C49:D49"/>
@@ -3408,7 +3507,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00970053-00B3-4398-8B2C-003900B500E3}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0068003A-0055-4115-941B-000A005C008D}">
             <xm:f>8000</xm:f>
             <x14:dxf>
               <font>
